--- a/experimental results/e5000_Taxi.xlsx
+++ b/experimental results/e5000_Taxi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="214">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -70,613 +70,592 @@
     <t>[0,0,2,3,4,5]</t>
   </si>
   <si>
-    <t>[2, 7, 11]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 3, 3, 1, 1, 1, 3, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '376', '276', '256', '236', '336', '236', '136', '116', '216', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14]</t>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '216', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11]</t>
   </si>
   <si>
     <t>Omitted</t>
   </si>
   <si>
-    <t>['[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[8, 10, 11, 13]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '216', '116', '216', '316', '216', '316', '216', '116', '16', '0']</t>
+    <t>['[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[6, 7, 8, 9, 10, 12, 13, 14, 15, 16, 19]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '336', '436', '436', '436', '436', '336', '436', '436', '436', '436', '436', '336', '236', '336', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 9, 10, 17, 18, 19, 20, 21, 22, 24, 26, 27, 28, 29, 30, 31, 32, 33, 35, 36, 39, 42, 43, 44, 45, 47, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '376', '276', '256', '236', '136', '116', '216', '316', '416', '416', '416', '416', '316', '416', '316', '416', '416', '416', '416', '416', '416', '416', '416', '316', '416', '416', '316', '216', '316', '216', '116', '216', '316', '416', '416', '316', '416', '316', '416']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 8, 9, 10, 11, 12, 13, 14, 15, 17, 18, 23, 24, 26, 29, 31, 32, 34, 35, 37, 38, 39, 40, 41, 42, 43, 44, 45, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '376', '276', '256', '236', '336', '436', '336', '436', '336', '236', '336', '236', '336', '436', '336', '436', '436', '336', '436', '436', '436', '436', '436', '436', '436', '436', '436', '336', '436', '436', '436']</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,2,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[3, 8, 12, 14, 16, 18, 20, 22]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '396', '376', '276', '256', '236', '256', '236', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25]</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[6, 10, 12, 14, 16, 18]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '256', '236', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21]</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 6, 8, 10, 12, 14, 16, 18, 20, 22, 24, 26, 28, 30, 32, 34, 36, 38, 40, 42, 44, 46, 48]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,2,5]</t>
+  </si>
+  <si>
+    <t>[1, 3]</t>
+  </si>
+  <si>
+    <t>[4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 5]</t>
+  </si>
+  <si>
+    <t>[4, 3, 4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '492', '472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 5, 7, 9, 11, 13, 15, 17]</t>
+  </si>
+  <si>
+    <t>[4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27]</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 5, 7, 9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49]</t>
+  </si>
+  <si>
+    <t>[4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4]</t>
+  </si>
+  <si>
+    <t>['472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,0,5]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>[4, 4, 4, 4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '472', '472', '472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+  </si>
+  <si>
+    <t>['472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,0]</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[9, 11]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[0,2,1,3,4,5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[6, 8, 10, 12, 14, 18, 20]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '136', '116', '136', '116', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[2, 5, 10, 12, 14]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '376', '396', '376', '276', '256', '236', '256', '236', '256', '236', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19]</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[0,3,2,1,4,5]</t>
+  </si>
+  <si>
+    <t>[4, 6, 8, 11]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 0, 3, 0, 3, 0, 3, 3, 0, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '176', '276', '176', '276', '176', '276', '256', '156', '256', '236', '136', '116', '16', '0']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
   </si>
   <si>
-    <t>['[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 8, 9, 11, 12, 13, 14, 15, 20, 21, 22, 24, 27, 29, 30, 31, 32, 33, 34, 37, 39, 40, 41, 42, 43, 45, 48, 51, 53]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '376', '276', '256', '236', '336', '436', '336', '436', '436', '436', '436', '436', '336', '236', '136', '116', '216', '316', '416', '316', '416', '316', '216', '316', '216', '316', '416', '416', '416', '416', '416', '316', '216', '316', '216', '316', '416', '416', '416', '416', '316', '416', '316', '216', '316', '216', '116', '216', '116', '216', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56]</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 9, 10, 11, 13, 15, 17, 18, 19, 20, 21, 22, 23, 25, 26, 28, 29, 30, 31, 32, 37, 38, 39, 41, 42, 43, 44, 45, 50, 51, 52, 53, 55, 56, 57, 58, 59, 60, 62, 63, 64, 65, 66, 67, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 87, 88, 89, 90, 91, 92, 93, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 108, 109, 111, 112, 113, 114, 115, 117, 119, 120, 121, 122, 123, 124, 125, 128, 129, 130, 132, 134, 135, 136, 137, 139, 140, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 158, 160, 161, 162, 163, 164, 166, 167, 168, 169, 170, 171, 173, 175, 176, 178, 179, 182, 184, 185, 187, 188, 189, 191, 192, 193, 194, 195, 196, 198, 199]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '376', '476', '376', '476', '376', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '376', '476', '476', '476', '476', '476', '376', '276', '256', '236', '336', '436', '436', '336', '436', '436', '436', '436', '436', '336', '236', '136', '116', '216', '316', '416', '416', '316', '416', '416', '416', '416', '416', '416', '316', '416', '416', '416', '416', '416', '416', '316', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '316', '416', '416', '416', '416', '416', '416', '416', '316', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '316', '216', '316', '416', '316', '416', '416', '416', '416', '416', '316', '416', '316', '416', '416', '416', '416', '416', '416', '416', '316', '216', '316', '416', '416', '316', '416', '316', '416', '416', '416', '416', '316', '416', '416', '316', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '416', '316', '416', '316', '416', '416', '416', '416', '416', '316', '416', '416', '416', '416', '416', '416', '316', '416', '316', '416', '416', '316', '416', '416', '316', '216', '316', '216', '316', '416', '316', '416', '416', '416', '316', '416', '416', '416', '416', '416', '416', '316', '416', '416']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[0,2,2,3,4,5]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '396', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11]</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 10]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 1, 3, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '376', '276', '256', '236', '136', '116', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 6, 9, 11, 13]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 3, 1, 3, 1, 1, 3, 1, 3, 1, 3, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '496', '476', '496', '476', '376', '396', '376', '396', '376', '396', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21]</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 5, 7, 9, 11, 13, 15, 17, 19, 24, 26, 28, 30, 32, 34, 36, 38, 40, 42, 44, 48, 50, 52, 54]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '276', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57]</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 6, 8, 10, 12, 14, 16, 18, 20, 22, 24, 26, 28, 30, 32, 34, 36, 38, 40, 42, 44, 46, 48, 50, 52, 54, 56, 58, 60, 62, 64, 66, 68, 70, 72, 74, 76, 78, 80, 82, 84, 86, 88, 90, 92, 94, 96, 98, 100, 102, 104, 106, 108, 110, 112, 114, 116, 118, 120, 122, 124, 126, 128, 130, 132, 134, 136, 138, 140, 142, 144, 146, 148, 150, 152, 154, 156, 158, 160, 162, 164, 166, 168, 170, 172, 174, 176, 178, 180, 182, 184, 186, 188, 190, 192, 194, 196, 198]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,2,5]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[1, 3]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 5, 7, 9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49, 51, 53, 55, 57, 59, 61, 63, 65, 67, 69, 71, 73, 75, 77, 79, 81, 83, 85, 87, 89, 91, 93, 95, 97, 99, 101, 103, 105, 107, 109, 111, 113, 115, 117, 119, 121, 123, 125, 127, 129, 131, 133, 135, 137, 139, 141, 143, 145, 147, 149, 151, 153, 155, 157, 159, 161, 163, 165, 167, 169, 171, 173, 175, 177, 179, 181, 183, 185, 187, 189, 191, 193, 195, 197, 199]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,0,5]</t>
-  </si>
-  <si>
-    <t>[4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14]</t>
-  </si>
-  <si>
-    <t>[4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23]</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
-  </si>
-  <si>
-    <t>['472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472']</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,0]</t>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[9, 11, 13]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15]</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[9, 11]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49, 51, 53, 55, 57, 59, 61, 63, 65, 67, 69, 71, 73, 75, 77, 79, 81, 83, 85, 87, 89, 91, 93, 95, 97, 99, 101, 103, 105, 107, 109, 111, 113, 115, 117, 119, 121, 123, 125, 127, 129, 131, 133, 135, 137, 139, 141, 143, 145, 147, 149, 151, 153, 155, 157, 159, 161, 163, 165, 167, 169, 171, 173, 175, 177, 179, 181, 183, 185, 187, 189, 191, 193, 195, 197, 199]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[0,2,1,3,4,5]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 6, 8, 10, 13]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 1, 3, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '376', '396', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 7, 9, 14, 16, 18, 22, 24]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 3, 1, 1, 3, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '496', '476', '376', '396', '376', '396', '376', '276', '256', '236', '256', '236', '256', '236', '256', '236', '136', '116', '136', '116', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27]</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[0,3,2,1,4,5]</t>
-  </si>
-  <si>
-    <t>[4, 10, 11]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 0, 3, 3, 1, 3, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '176', '276', '256', '236', '136', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[3, 5, 7, 12]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 3, 0, 3, 0, 3, 3, 1, 3, 3, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '376', '276', '176', '276', '176', '276', '256', '236', '136', '36', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>[3, 5, 7, 9, 12, 14, 16, 18, 20, 22, 24, 26, 28, 30, 32, 34, 36, 38, 40, 43, 44, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 3, 0, 3, 0, 3, 0, 3, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '376', '276', '176', '276', '176', '276', '176', '276', '256', '156', '256', '156', '256', '156', '256', '156', '256', '156', '256', '156', '256', '156', '256', '156', '256', '156', '256', '156', '256', '156', '256', '156', '256', '156', '256', '156', '256', '156', '256', '236', '216', '216', '116', '116', '116', '116', '116', '116', '116', '116', '116', '116', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59]</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 8, 9, 11, 13, 16, 18, 21, 22, 23, 24, 25, 26, 27, 29, 30, 31, 32, 33, 34, 35, 36, 37]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 0, 3, 0, 3, 3, 0, 3, 0, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '476', '476', '376', '376', '376', '276', '176', '276', '176', '276', '256', '156', '256', '156', '256', '236', '216', '216', '216', '216', '216', '216', '216', '116', '116', '116', '116', '116', '116', '116', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39]</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]']</t>
+    <t>['[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 6, 9]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 3, 0, 3, 3, 0, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '376', '276', '176', '276', '256', '156', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[2, 5, 8, 10, 12, 15]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 3, 0, 3, 3, 0, 3, 0, 3, 0, 3, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '376', '276', '176', '276', '256', '156', '256', '156', '256', '156', '256', '236', '216', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18]</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 15, 16, 18, 21, 23, 26, 27, 29, 30]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 0, 3, 3, 0, 3, 0, 3, 1, 1, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '376', '376', '276', '176', '276', '256', '156', '256', '156', '256', '236', '216', '216', '116', '116', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32]</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]']</t>
   </si>
   <si>
     <t>[0,4,2,3,1,5]</t>
   </si>
   <si>
-    <t>[1, 3, 5, 14]</t>
-  </si>
-  <si>
-    <t>[4, 0, 4, 0, 4, 0, 4, 1, 1, 3, 3, 1, 3, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '372', '472', '372', '472', '372', '472', '476', '376', '276', '256', '236', '136', '116', '116', '16', '0']</t>
+    <t>[3, 4, 5, 11]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '376', '376', '376', '276', '256', '236', '136', '116', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[4, 0, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '372', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[3, 4, 8, 11, 12, 13]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 3, 3, 1, 1, 3, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '376', '376', '276', '256', '236', '236', '136', '116', '116', '116', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 5, 7, 9, 11, 13, 15, 18, 20, 24, 25, 26]</t>
+  </si>
+  <si>
+    <t>[4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '476', '476', '376', '376', '276', '256', '236', '236', '236', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30]</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4]</t>
+  </si>
+  <si>
+    <t>['472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[0,5,2,3,4,1]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[4, 1, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[2, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 18, 19, 20, 23, 25]</t>
+  </si>
+  <si>
+    <t>[4, 1, 4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 3, 1, 1, 5, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '472', '476', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '276', '256', '236', '236', '236', '236', '136', '116', '116', '16', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 6, 7, 11, 12, 13, 14, 15, 18, 19, 20, 21, 22, 23, 24, 25, 26]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '376', '376', '376', '376', '376', '276', '256', '236', '236', '236', '236', '236', '236', '136', '116', '116', '116', '116', '116', '116', '116', '116', '116', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4]</t>
+  </si>
+  <si>
+    <t>['472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[1,0,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>[2, 7]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 3, 3, 1, 1, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '376', '276', '256', '236', '336', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 6, 7, 9, 11, 12, 14, 19, 20, 21, 22, 23, 26, 27, 28, 31]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '476', '476', '476', '476', '476', '376', '476', '376', '476', '476', '376', '476', '376', '276', '256', '236', '336', '436', '436', '436', '436', '336', '236', '336', '436', '436', '336', '236', '336', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36]</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 6, 8]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '476', '376', '476', '376', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16]</t>
   </si>
   <si>
-    <t>['[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 11]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '376', '276', '256', '236', '136', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 7, 11, 14, 15]</t>
-  </si>
-  <si>
-    <t>[4, 0, 4, 0, 4, 1, 1, 1, 3, 3, 1, 1, 3, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '372', '472', '372', '472', '476', '376', '376', '276', '256', '236', '236', '136', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 8, 9, 10, 11, 12, 13, 16, 17, 18, 19, 20, 21]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '376', '376', '276', '256', '236', '236', '236', '236', '236', '236', '236', '136', '116', '116', '116', '116', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4]</t>
-  </si>
-  <si>
-    <t>['472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[0,5,2,3,4,1]</t>
-  </si>
-  <si>
-    <t>[3, 4, 10]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '376', '376', '276', '256', '236', '136', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 7, 8, 14, 15, 16, 17]</t>
-  </si>
-  <si>
-    <t>[4, 1, 4, 1, 4, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '472', '476', '472', '476', '376', '376', '376', '276', '256', '236', '136', '116', '116', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19]</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 7, 13]</t>
-  </si>
-  <si>
-    <t>[4, 1, 4, 1, 4, 1, 1, 1, 3, 3, 1, 3, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '472', '476', '472', '476', '376', '376', '276', '256', '236', '136', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 6, 8, 10, 13, 14, 15, 16, 17, 18, 24, 25, 26, 28]</t>
-  </si>
-  <si>
-    <t>[4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 5, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '376', '376', '376', '376', '376', '376', '376', '276', '256', '236', '136', '116', '116', '116', '116', '16', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29]</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4]</t>
-  </si>
-  <si>
-    <t>['472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476']</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[1,0,2,3,4,5]</t>
-  </si>
-  <si>
-    <t>[6, 10]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 1, 1, 3, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '336', '236', '136', '116', '216', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[3, 8, 10, 11, 13, 18, 19, 20, 21, 23, 24]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '476', '376', '276', '256', '236', '336', '236', '336', '436', '336', '436', '336', '236', '136', '116', '216', '316', '416', '416', '316', '416', '416', '316', '216', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 6, 7, 8, 10, 11, 12, 14, 16, 17, 18, 19, 20, 21, 22, 24, 25, 26, 28, 29, 31, 33, 35, 36, 38, 39, 44, 45, 48, 49, 50, 51, 52, 53, 55, 56, 57, 58, 61, 62, 63, 65, 66, 68, 70, 71, 72, 73, 74, 79, 80, 81, 84, 85, 86, 87, 88, 91, 94]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '376', '476', '376', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '376', '476', '476', '376', '476', '376', '476', '376', '476', '476', '376', '476', '476', '376', '276', '256', '236', '336', '436', '336', '236', '336', '436', '436', '436', '436', '436', '336', '436', '436', '436', '436', '336', '236', '336', '436', '436', '336', '436', '436', '336', '436', '336', '436', '436', '436', '436', '436', '336', '236', '136', '116', '216', '316', '416', '316', '216', '316', '416', '416', '416', '416', '316', '216', '316', '216', '116', '216', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97]</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 10, 12, 13, 14, 15, 16, 18, 19, 21, 22, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 40, 42]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '376', '476', '376', '476', '476', '476', '476', '476', '376', '476', '476', '376', '476', '476', '376', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '476', '376', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50]</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]']</t>
+    <t>['[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37, 38, 40, 42, 43, 44, 45, 46, 47, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '276', '256', '236', '336', '436', '436', '436', '336', '436', '436', '436', '436', '436', '436', '436', '336', '436', '336', '436', '436', '436', '436', '436', '436', '336', '436']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]']</t>
   </si>
 </sst>
 </file>
@@ -1106,13 +1085,13 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -1124,7 +1103,7 @@
         <v>21</v>
       </c>
       <c r="L2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1156,13 +1135,13 @@
         <v>24</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
@@ -1174,7 +1153,7 @@
         <v>27</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1206,13 +1185,13 @@
         <v>29</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -1224,7 +1203,7 @@
         <v>32</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1256,13 +1235,13 @@
         <v>34</v>
       </c>
       <c r="F5">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
       <c r="H5">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
         <v>36</v>
@@ -1271,22 +1250,22 @@
         <v>100</v>
       </c>
       <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
         <v>37</v>
-      </c>
-      <c r="L5">
-        <v>200</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
-      <c r="P5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1303,40 +1282,40 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="F6">
-        <v>198</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
         <v>40</v>
       </c>
-      <c r="H6">
-        <v>199</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
         <v>41</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6">
-        <v>200</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
-      <c r="P6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1344,7 +1323,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>0.2</v>
@@ -1353,25 +1332,25 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>44</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
       </c>
       <c r="H7">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="L7">
         <v>12</v>
@@ -1386,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1394,7 +1373,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>0.4</v>
@@ -1403,40 +1382,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
         <v>49</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8" t="s">
         <v>50</v>
-      </c>
-      <c r="H8">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8">
-        <v>14</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8">
-        <v>10</v>
-      </c>
-      <c r="P8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1444,7 +1423,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0.6</v>
@@ -1453,40 +1432,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
         <v>54</v>
       </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="L9">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9" t="s">
         <v>55</v>
-      </c>
-      <c r="H9">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9">
-        <v>22</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-      <c r="P9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1494,7 +1473,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>0.8</v>
@@ -1503,40 +1482,40 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="F10">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="L10">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
         <v>60</v>
-      </c>
-      <c r="H10">
-        <v>57</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10">
-        <v>58</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10">
-        <v>10</v>
-      </c>
-      <c r="P10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1544,7 +1523,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1553,40 +1532,40 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
         <v>64</v>
-      </c>
-      <c r="F11">
-        <v>99</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11">
-        <v>199</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11">
-        <v>200</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11">
-        <v>10</v>
-      </c>
-      <c r="P11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1594,7 +1573,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>0.2</v>
@@ -1603,40 +1582,40 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12" t="s">
         <v>69</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12" t="s">
         <v>70</v>
-      </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
-      <c r="K12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12">
-        <v>12</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="P12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1644,7 +1623,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>0.4</v>
@@ -1653,28 +1632,28 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J13">
         <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1686,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="P13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1694,7 +1673,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>0.6</v>
@@ -1703,40 +1682,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s">
         <v>74</v>
       </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14">
+        <v>16</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14" t="s">
         <v>76</v>
-      </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="K14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14">
-        <v>14</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14">
-        <v>10</v>
-      </c>
-      <c r="P14" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1744,7 +1723,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>0.8</v>
@@ -1753,28 +1732,28 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1786,7 +1765,7 @@
         <v>10</v>
       </c>
       <c r="P15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1794,7 +1773,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1803,28 +1782,28 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H16">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L16">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1836,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="P16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1844,7 +1823,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>0.2</v>
@@ -1853,25 +1832,25 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L17">
         <v>11</v>
@@ -1886,7 +1865,7 @@
         <v>10</v>
       </c>
       <c r="P17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1894,7 +1873,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C18">
         <v>0.4</v>
@@ -1903,25 +1882,25 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L18">
         <v>11</v>
@@ -1936,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="P18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1944,7 +1923,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C19">
         <v>0.6</v>
@@ -1953,25 +1932,25 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L19">
         <v>11</v>
@@ -1986,7 +1965,7 @@
         <v>10</v>
       </c>
       <c r="P19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1994,7 +1973,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C20">
         <v>0.8</v>
@@ -2003,29 +1982,29 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20">
         <v>14</v>
       </c>
-      <c r="G20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20">
-        <v>23</v>
-      </c>
-      <c r="I20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20">
-        <v>100</v>
-      </c>
-      <c r="K20" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20">
-        <v>24</v>
-      </c>
       <c r="M20">
         <v>0</v>
       </c>
@@ -2036,7 +2015,7 @@
         <v>10</v>
       </c>
       <c r="P20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2044,7 +2023,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2053,28 +2032,28 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H21">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L21">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2086,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="P21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2094,7 +2073,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C22">
         <v>0.2</v>
@@ -2103,25 +2082,25 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H22">
         <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="L22">
         <v>12</v>
@@ -2136,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="P22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2144,7 +2123,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>0.4</v>
@@ -2153,25 +2132,25 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H23">
         <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="L23">
         <v>12</v>
@@ -2186,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="P23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2194,7 +2173,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C24">
         <v>0.6</v>
@@ -2203,40 +2182,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
         <v>105</v>
       </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>107</v>
-      </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24">
+        <v>12</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+      <c r="P24" t="s">
         <v>108</v>
-      </c>
-      <c r="L24">
-        <v>16</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24">
-        <v>10</v>
-      </c>
-      <c r="P24" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2244,7 +2223,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C25">
         <v>0.8</v>
@@ -2253,25 +2232,25 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H25">
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L25">
         <v>14</v>
@@ -2286,7 +2265,7 @@
         <v>10</v>
       </c>
       <c r="P25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2294,7 +2273,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2303,40 +2282,40 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
         <v>114</v>
       </c>
-      <c r="F26">
-        <v>96</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
         <v>115</v>
       </c>
-      <c r="H26">
-        <v>199</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26">
+        <v>10</v>
+      </c>
+      <c r="P26" t="s">
         <v>116</v>
-      </c>
-      <c r="J26">
-        <v>100</v>
-      </c>
-      <c r="K26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26">
-        <v>200</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26">
-        <v>10</v>
-      </c>
-      <c r="P26" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2344,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27">
         <v>0.2</v>
@@ -2353,25 +2332,25 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="H27">
         <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="L27">
         <v>12</v>
@@ -2386,7 +2365,7 @@
         <v>10</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2394,7 +2373,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28">
         <v>0.4</v>
@@ -2403,40 +2382,40 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
         <v>123</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="L28">
+        <v>24</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+      <c r="P28" t="s">
         <v>124</v>
-      </c>
-      <c r="H28">
-        <v>11</v>
-      </c>
-      <c r="I28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28">
-        <v>100</v>
-      </c>
-      <c r="K28" t="s">
-        <v>47</v>
-      </c>
-      <c r="L28">
-        <v>12</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28">
-        <v>10</v>
-      </c>
-      <c r="P28" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2444,7 +2423,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29">
         <v>0.6</v>
@@ -2453,40 +2432,40 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
         <v>127</v>
       </c>
-      <c r="F29">
-        <v>6</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29" t="s">
         <v>128</v>
       </c>
-      <c r="H29">
-        <v>21</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29" t="s">
         <v>129</v>
-      </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
-      <c r="K29" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29">
-        <v>22</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29">
-        <v>10</v>
-      </c>
-      <c r="P29" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2494,7 +2473,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30">
         <v>0.8</v>
@@ -2503,28 +2482,28 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="H30">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I30" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2536,7 +2515,7 @@
         <v>10</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2544,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2553,28 +2532,28 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F31">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H31">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L31">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2586,7 +2565,7 @@
         <v>10</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2594,7 +2573,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C32">
         <v>0.2</v>
@@ -2603,28 +2582,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2636,7 +2615,7 @@
         <v>10</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2644,7 +2623,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C33">
         <v>0.4</v>
@@ -2653,28 +2632,28 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2686,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2694,7 +2673,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C34">
         <v>0.6</v>
@@ -2703,40 +2682,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34" t="s">
+        <v>145</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+      <c r="P34" t="s">
         <v>146</v>
-      </c>
-      <c r="F34">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>147</v>
-      </c>
-      <c r="H34">
-        <v>59</v>
-      </c>
-      <c r="I34" t="s">
-        <v>148</v>
-      </c>
-      <c r="J34">
-        <v>100</v>
-      </c>
-      <c r="K34" t="s">
-        <v>149</v>
-      </c>
-      <c r="L34">
-        <v>60</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
-        <v>22</v>
-      </c>
-      <c r="O34">
-        <v>10</v>
-      </c>
-      <c r="P34" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2744,7 +2723,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C35">
         <v>0.8</v>
@@ -2753,40 +2732,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>149</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35" t="s">
+        <v>150</v>
+      </c>
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35" t="s">
         <v>151</v>
-      </c>
-      <c r="F35">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>152</v>
-      </c>
-      <c r="H35">
-        <v>39</v>
-      </c>
-      <c r="I35" t="s">
-        <v>153</v>
-      </c>
-      <c r="J35">
-        <v>100</v>
-      </c>
-      <c r="K35" t="s">
-        <v>154</v>
-      </c>
-      <c r="L35">
-        <v>40</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
-        <v>22</v>
-      </c>
-      <c r="O35">
-        <v>10</v>
-      </c>
-      <c r="P35" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2794,7 +2773,7 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2803,28 +2782,28 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36">
+        <v>48</v>
+      </c>
+      <c r="G36" t="s">
         <v>39</v>
       </c>
-      <c r="F36">
-        <v>198</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36">
+        <v>49</v>
+      </c>
+      <c r="I36" t="s">
         <v>40</v>
       </c>
-      <c r="H36">
-        <v>199</v>
-      </c>
-      <c r="I36" t="s">
-        <v>41</v>
-      </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L36">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2836,7 +2815,7 @@
         <v>10</v>
       </c>
       <c r="P36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2844,7 +2823,7 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C37">
         <v>0.2</v>
@@ -2853,28 +2832,28 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2886,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2894,7 +2873,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C38">
         <v>0.4</v>
@@ -2903,28 +2882,28 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2936,7 +2915,7 @@
         <v>10</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2944,7 +2923,7 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C39">
         <v>0.6</v>
@@ -2953,28 +2932,28 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F39">
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H39">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2986,7 +2965,7 @@
         <v>10</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2994,7 +2973,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C40">
         <v>0.8</v>
@@ -3003,28 +2982,28 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H40">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I40" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -3036,7 +3015,7 @@
         <v>10</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3044,7 +3023,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3053,28 +3032,28 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F41">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H41">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L41">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -3086,7 +3065,7 @@
         <v>10</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3094,7 +3073,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C42">
         <v>0.2</v>
@@ -3103,28 +3082,28 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H42">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3136,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3144,7 +3123,7 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C43">
         <v>0.4</v>
@@ -3153,28 +3132,28 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H43">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I43" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -3186,7 +3165,7 @@
         <v>10</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3194,7 +3173,7 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C44">
         <v>0.6</v>
@@ -3203,28 +3182,28 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I44" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3236,7 +3215,7 @@
         <v>10</v>
       </c>
       <c r="P44" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3244,7 +3223,7 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C45">
         <v>0.8</v>
@@ -3253,29 +3232,29 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F45">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H45">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>187</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45" t="s">
+        <v>188</v>
+      </c>
+      <c r="L45">
         <v>29</v>
       </c>
-      <c r="I45" t="s">
-        <v>195</v>
-      </c>
-      <c r="J45">
-        <v>100</v>
-      </c>
-      <c r="K45" t="s">
-        <v>196</v>
-      </c>
-      <c r="L45">
-        <v>30</v>
-      </c>
       <c r="M45">
         <v>0</v>
       </c>
@@ -3286,7 +3265,7 @@
         <v>10</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3294,7 +3273,7 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3303,28 +3282,28 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F46">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H46">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L46">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3336,7 +3315,7 @@
         <v>10</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3344,7 +3323,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C47">
         <v>0.2</v>
@@ -3353,29 +3332,29 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H47">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>196</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47" t="s">
+        <v>197</v>
+      </c>
+      <c r="L47">
         <v>13</v>
       </c>
-      <c r="I47" t="s">
-        <v>204</v>
-      </c>
-      <c r="J47">
-        <v>100</v>
-      </c>
-      <c r="K47" t="s">
-        <v>52</v>
-      </c>
-      <c r="L47">
-        <v>14</v>
-      </c>
       <c r="M47">
         <v>0</v>
       </c>
@@ -3386,7 +3365,7 @@
         <v>10</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3394,7 +3373,7 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C48">
         <v>0.4</v>
@@ -3403,28 +3382,28 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F48">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H48">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I48" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3436,7 +3415,7 @@
         <v>10</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3444,7 +3423,7 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C49">
         <v>0.6</v>
@@ -3453,28 +3432,28 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F49">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H49">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I49" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J49">
         <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L49">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3486,7 +3465,7 @@
         <v>10</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3494,7 +3473,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C50">
         <v>0.8</v>
@@ -3503,29 +3482,29 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F50">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H50">
+        <v>49</v>
+      </c>
+      <c r="I50" t="s">
+        <v>211</v>
+      </c>
+      <c r="J50">
+        <v>100</v>
+      </c>
+      <c r="K50" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50">
         <v>50</v>
       </c>
-      <c r="I50" t="s">
-        <v>217</v>
-      </c>
-      <c r="J50">
-        <v>100</v>
-      </c>
-      <c r="K50" t="s">
-        <v>218</v>
-      </c>
-      <c r="L50">
-        <v>51</v>
-      </c>
       <c r="M50">
         <v>0</v>
       </c>
@@ -3536,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3544,7 +3523,7 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3553,28 +3532,28 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51">
+        <v>48</v>
+      </c>
+      <c r="G51" t="s">
         <v>39</v>
       </c>
-      <c r="F51">
-        <v>198</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51">
+        <v>49</v>
+      </c>
+      <c r="I51" t="s">
         <v>40</v>
       </c>
-      <c r="H51">
-        <v>199</v>
-      </c>
-      <c r="I51" t="s">
-        <v>41</v>
-      </c>
       <c r="J51">
         <v>100</v>
       </c>
       <c r="K51" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L51">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -3586,7 +3565,7 @@
         <v>10</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/experimental results/e5000_Taxi.xlsx
+++ b/experimental results/e5000_Taxi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="214">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -70,6 +70,543 @@
     <t>[0,0,2,3,4,5]</t>
   </si>
   <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 1, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '336', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11]</t>
+  </si>
+  <si>
+    <t>Omitted</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 5, 6, 7, 9, 10, 11, 12, 14, 15, 20, 22, 24, 26, 27, 28, 30, 31, 36, 37, 38]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '376', '476', '476', '476', '376', '476', '476', '476', '476', '376', '476', '476', '376', '276', '256', '236', '336', '236', '336', '236', '336', '236', '336', '436', '436', '336', '436', '436', '336', '236', '136', '116', '216', '316', '416', '316', '216', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43]</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 7, 9, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 25, 26, 27, 29, 30, 35]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '376', '476', '476', '376', '476', '376', '476', '376', '276', '256', '236', '336', '436', '436', '436', '436', '436', '436', '436', '436', '436', '336', '436', '436', '436', '336', '436', '436', '336', '236', '136', '116', '216', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38]</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 6, 7, 9, 10, 11, 13, 18, 19, 20, 21, 22, 24, 25, 27, 28, 29, 30, 31, 33, 34, 36, 37, 38, 40, 41, 42, 43, 44, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '476', '476', '476', '476', '476', '376', '476', '476', '476', '376', '476', '376', '276', '256', '236', '336', '436', '436', '436', '436', '336', '436', '436', '336', '436', '436', '436', '436', '436', '336', '436', '436', '336', '436', '436', '436', '336', '436', '436', '436', '436', '436', '336', '236', '336', '436', '436']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,2,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[3, 8]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '396', '376', '276', '256', '236', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[3, 5, 10, 12]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '396', '376', '396', '376', '276', '256', '236', '256', '236', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 6, 8, 10, 12, 14, 16, 18, 20, 23, 25, 27, 29, 31, 33, 40, 42, 44, 46]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '276', '256', '236', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 6, 8, 10, 12, 14, 16, 18, 20, 22, 24, 26, 28, 30, 32, 34, 36, 38, 40, 42, 44, 46, 48]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,2,5]</t>
+  </si>
+  <si>
+    <t>[1, 3]</t>
+  </si>
+  <si>
+    <t>[4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 5, 7]</t>
+  </si>
+  <si>
+    <t>[4, 3, 4, 3, 4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '492', '472', '492', '472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 5, 7, 9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49]</t>
+  </si>
+  <si>
+    <t>[4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4]</t>
+  </si>
+  <si>
+    <t>['472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492']</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,0,5]</t>
+  </si>
+  <si>
+    <t>[4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3]</t>
+  </si>
+  <si>
+    <t>[4, 4, 4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '472', '472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+  </si>
+  <si>
+    <t>['472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472']</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,0]</t>
+  </si>
+  <si>
+    <t>[9, 11]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>[9, 11, 13]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[9, 11, 13, 15, 17]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19]</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,2,1,3,4,5]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '396', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[6, 8]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '256', '236', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 6, 8, 11, 13, 15, 17, 19, 21, 26, 28, 30, 32, 34, 36, 38, 40, 42, 44, 46, 48]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '276', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236']</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,3,2,1,4,5]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[3, 4, 9, 10, 11]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 3, 3, 1, 3, 3, 3, 3, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '376', '376', '276', '256', '236', '136', '36', '36', '36', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[5, 9]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 0, 3, 1, 3, 3, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '156', '256', '236', '136', '36', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 5, 8, 11, 12, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 3, 3, 0, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '376', '376', '276', '256', '156', '256', '236', '216', '216', '116', '116', '116', '116', '116', '116', '116', '116', '116', '116', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25]</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>[0,4,2,3,1,5]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 6, 10, 11, 14, 15]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 3, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '376', '376', '376', '376', '276', '256', '236', '236', '236', '136', '116', '116', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[1, 4, 5]</t>
+  </si>
+  <si>
+    <t>[4, 0, 4, 1, 1, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '372', '472', '476', '476', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 5, 7, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 0, 4, 0, 4, 0, 4, 0, 4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['472', '372', '472', '372', '472', '372', '472', '372', '472', '476', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '276', '256', '236', '136', '116', '116', '116', '116']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4]</t>
+  </si>
+  <si>
+    <t>['472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,5,2,3,4,1]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[3, 7]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 3, 3, 1, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '376', '276', '256', '236', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[2, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>[4, 1, 4, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '472', '476', '376', '276', '256', '236', '136', '116', '116', '116', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 7, 8, 9, 10, 11, 12, 13, 17, 18, 21]</t>
+  </si>
+  <si>
+    <t>[4, 1, 4, 1, 4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 3, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '472', '476', '472', '476', '376', '376', '376', '376', '376', '376', '376', '376', '276', '256', '236', '236', '236', '136', '116', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23]</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4]</t>
+  </si>
+  <si>
+    <t>['472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[1,0,2,3,4,5]</t>
+  </si>
+  <si>
     <t>[8]</t>
   </si>
   <si>
@@ -79,583 +616,46 @@
     <t>['472', '476', '376', '276', '256', '236', '136', '116', '216', '116', '16', '0']</t>
   </si>
   <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11]</t>
-  </si>
-  <si>
-    <t>Omitted</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[6, 7, 8, 9, 10, 12, 13, 14, 15, 16, 19]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '336', '436', '436', '436', '436', '336', '436', '436', '436', '436', '436', '336', '236', '336', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24]</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 9, 10, 17, 18, 19, 20, 21, 22, 24, 26, 27, 28, 29, 30, 31, 32, 33, 35, 36, 39, 42, 43, 44, 45, 47, 49]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '376', '276', '256', '236', '136', '116', '216', '316', '416', '416', '416', '416', '316', '416', '316', '416', '416', '416', '416', '416', '416', '416', '416', '316', '416', '416', '316', '216', '316', '216', '116', '216', '316', '416', '416', '316', '416', '316', '416']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 8, 9, 10, 11, 12, 13, 14, 15, 17, 18, 23, 24, 26, 29, 31, 32, 34, 35, 37, 38, 39, 40, 41, 42, 43, 44, 45, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '376', '276', '256', '236', '336', '436', '336', '436', '336', '236', '336', '236', '336', '436', '336', '436', '436', '336', '436', '436', '436', '436', '436', '436', '436', '436', '436', '336', '436', '436', '436']</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[0,2,2,3,4,5]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[6]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[3, 8, 12, 14, 16, 18, 20, 22]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '396', '376', '276', '256', '236', '256', '236', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25]</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[6, 10, 12, 14, 16, 18]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '256', '236', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21]</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 6, 8, 10, 12, 14, 16, 18, 20, 22, 24, 26, 28, 30, 32, 34, 36, 38, 40, 42, 44, 46, 48]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,2,5]</t>
-  </si>
-  <si>
-    <t>[1, 3]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 5]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15]</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 5, 7, 9, 11, 13, 15, 17]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 5, 7, 9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,0,5]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4]</t>
-  </si>
-  <si>
-    <t>[4, 4, 4, 4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '472', '472', '472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>[4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
-  </si>
-  <si>
-    <t>['472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,0]</t>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[9, 11]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[0,2,1,3,4,5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[6, 8, 10, 12, 14, 18, 20]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '136', '116', '136', '116', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23]</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[2, 5, 10, 12, 14]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '376', '396', '376', '276', '256', '236', '256', '236', '256', '236', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19]</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[0,3,2,1,4,5]</t>
-  </si>
-  <si>
-    <t>[4, 6, 8, 11]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 0, 3, 0, 3, 0, 3, 3, 0, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '176', '276', '176', '276', '176', '276', '256', '156', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 6, 9]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 3, 0, 3, 3, 0, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '376', '276', '176', '276', '256', '156', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[2, 5, 8, 10, 12, 15]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 3, 0, 3, 3, 0, 3, 0, 3, 0, 3, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '376', '276', '176', '276', '256', '156', '256', '156', '256', '156', '256', '236', '216', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 15, 16, 18, 21, 23, 26, 27, 29, 30]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 0, 3, 3, 0, 3, 0, 3, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '376', '376', '276', '176', '276', '256', '156', '256', '156', '256', '236', '216', '216', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32]</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[0,4,2,3,1,5]</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 11]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '376', '376', '376', '276', '256', '236', '136', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[4, 0, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '372', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 8, 11, 12, 13]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 3, 3, 1, 1, 3, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '376', '376', '276', '256', '236', '236', '136', '116', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 5, 7, 9, 11, 13, 15, 18, 20, 24, 25, 26]</t>
-  </si>
-  <si>
-    <t>[4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '476', '476', '376', '376', '276', '256', '236', '236', '236', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30]</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4]</t>
-  </si>
-  <si>
-    <t>['472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[0,5,2,3,4,1]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[4, 1, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[2, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 18, 19, 20, 23, 25]</t>
-  </si>
-  <si>
-    <t>[4, 1, 4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 3, 1, 1, 5, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '472', '476', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '276', '256', '236', '236', '236', '236', '136', '116', '116', '16', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26]</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 6, 7, 11, 12, 13, 14, 15, 18, 19, 20, 21, 22, 23, 24, 25, 26]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '376', '376', '376', '376', '376', '276', '256', '236', '236', '236', '236', '236', '236', '136', '116', '116', '116', '116', '116', '116', '116', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28]</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4]</t>
-  </si>
-  <si>
-    <t>['472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[1,0,2,3,4,5]</t>
-  </si>
-  <si>
-    <t>[2, 7]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 3, 3, 1, 1, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '376', '276', '256', '236', '336', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 6, 7, 9, 11, 12, 14, 19, 20, 21, 22, 23, 26, 27, 28, 31]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '476', '476', '476', '476', '476', '376', '476', '376', '476', '476', '376', '476', '376', '276', '256', '236', '336', '436', '436', '436', '436', '336', '236', '336', '436', '436', '336', '236', '336', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36]</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 6, 8]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '376', '476', '376', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16]</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37, 38, 40, 42, 43, 44, 45, 46, 47, 49]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '276', '256', '236', '336', '436', '436', '436', '336', '436', '436', '436', '436', '436', '436', '436', '336', '436', '336', '436', '436', '436', '436', '436', '436', '336', '436']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]']</t>
+    <t>['[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 5, 6, 8, 9, 16, 18, 20, 22]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '376', '476', '476', '376', '476', '476', '376', '276', '256', '236', '136', '116', '216', '116', '216', '116', '216', '116', '216', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[2, 7, 11, 12, 13, 15, 17, 18, 20, 22, 24, 25, 27, 28, 30, 31, 33, 34]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 3, 3, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '376', '276', '256', '236', '336', '236', '136', '116', '216', '316', '416', '316', '416', '316', '416', '416', '316', '416', '316', '416', '316', '416', '416', '316', '416', '416', '316', '416', '416', '316', '416', '416', '316', '216', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39]</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 15, 17, 18, 20, 21, 23, 24, 25, 27, 29, 31, 32, 33, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '476', '376', '476', '476', '376', '476', '476', '376', '476', '476', '476', '376', '476', '376', '476', '376', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]']</t>
   </si>
 </sst>
 </file>
@@ -703,8 +703,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P51" totalsRowShown="0">
-  <autoFilter ref="A1:P51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P101" totalsRowShown="0">
+  <autoFilter ref="A1:P101"/>
   <tableColumns count="16">
     <tableColumn id="1" name="01_i_domain_name"/>
     <tableColumn id="2" name="02_i_execution_fault_mode_name"/>
@@ -1012,7 +1012,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1126,34 +1126,34 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>24</v>
-      </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1176,34 +1176,34 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1226,34 +1226,34 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H5">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1276,25 +1276,25 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6">
         <v>38</v>
       </c>
-      <c r="F6">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6">
-        <v>49</v>
-      </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -1303,7 +1303,7 @@
         <v>32</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1323,37 +1323,37 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L7">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1373,37 +1373,37 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="P8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1423,37 +1423,37 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="L9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1465,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="P9" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1473,49 +1473,49 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
         <v>42</v>
-      </c>
-      <c r="C10">
-        <v>0.8</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10">
-        <v>22</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10">
-        <v>10</v>
-      </c>
-      <c r="P10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1523,7 +1523,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1532,25 +1532,25 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L11">
         <v>50</v>
@@ -1565,7 +1565,7 @@
         <v>10</v>
       </c>
       <c r="P11" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1573,7 +1573,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>0.2</v>
@@ -1582,28 +1582,28 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="P12" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1623,37 +1623,37 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="J13">
         <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1673,37 +1673,37 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>10</v>
       </c>
       <c r="P14" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1723,37 +1723,37 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>10</v>
       </c>
       <c r="P15" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1773,37 +1773,37 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F16">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H16">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="P16" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1823,37 +1823,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>10</v>
       </c>
       <c r="P17" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1873,37 +1873,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C18">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="P18" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1923,37 +1923,37 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>10</v>
       </c>
       <c r="P19" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1973,37 +1973,37 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>10</v>
       </c>
       <c r="P20" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2023,7 +2023,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2032,25 +2032,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F21">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="H21">
         <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -2065,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="P21" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2073,7 +2073,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>0.2</v>
@@ -2082,28 +2082,28 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="L22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="P22" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2123,37 +2123,37 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="P23" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2173,28 +2173,28 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C24">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="H24">
         <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -2215,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="P24" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2223,37 +2223,37 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C25">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>10</v>
       </c>
       <c r="P25" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2273,37 +2273,37 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26" t="s">
         <v>21</v>
       </c>
-      <c r="G26" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26">
-        <v>49</v>
-      </c>
-      <c r="I26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J26">
-        <v>100</v>
-      </c>
-      <c r="K26" t="s">
-        <v>32</v>
-      </c>
       <c r="L26">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>10</v>
       </c>
       <c r="P26" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2323,28 +2323,28 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C27">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="H27">
         <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="J27">
         <v>100</v>
@@ -2365,7 +2365,7 @@
         <v>10</v>
       </c>
       <c r="P27" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2373,37 +2373,37 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C28">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="H28">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>10</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2423,37 +2423,37 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C29">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2473,37 +2473,37 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L30">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>10</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2523,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2532,25 +2532,25 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F31">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H31">
         <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L31">
         <v>50</v>
@@ -2565,7 +2565,7 @@
         <v>10</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2573,7 +2573,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C32">
         <v>0.2</v>
@@ -2582,28 +2582,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="H32">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>10</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2623,37 +2623,37 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C33">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2665,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2673,37 +2673,37 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C34">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>10</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2723,37 +2723,37 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C35">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="F35">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="H35">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>10</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2773,37 +2773,37 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F36">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="H36">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="L36">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>10</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2823,38 +2823,38 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="C37">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="H37">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37" t="s">
+        <v>93</v>
+      </c>
+      <c r="L37">
         <v>13</v>
       </c>
-      <c r="I37" t="s">
-        <v>156</v>
-      </c>
-      <c r="J37">
-        <v>100</v>
-      </c>
-      <c r="K37" t="s">
-        <v>69</v>
-      </c>
-      <c r="L37">
-        <v>14</v>
-      </c>
       <c r="M37">
         <v>0</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2873,38 +2873,38 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="C38">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38">
+        <v>100</v>
+      </c>
+      <c r="K38" t="s">
         <v>87</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>158</v>
-      </c>
-      <c r="H38">
+      <c r="L38">
         <v>11</v>
       </c>
-      <c r="I38" t="s">
-        <v>159</v>
-      </c>
-      <c r="J38">
-        <v>100</v>
-      </c>
-      <c r="K38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38">
-        <v>12</v>
-      </c>
       <c r="M38">
         <v>0</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>10</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2923,37 +2923,37 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="C39">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>10</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2973,37 +2973,37 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="C40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="H40">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>10</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3023,7 +3023,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3032,25 +3032,25 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F41">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="H41">
         <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L41">
         <v>50</v>
@@ -3065,7 +3065,7 @@
         <v>10</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3073,7 +3073,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="C42">
         <v>0.2</v>
@@ -3082,28 +3082,28 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
         <v>103</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>174</v>
-      </c>
-      <c r="H42">
-        <v>10</v>
-      </c>
-      <c r="I42" t="s">
-        <v>175</v>
-      </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="L42">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3123,37 +3123,37 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="C43">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="H43">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="L43">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>10</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3173,37 +3173,37 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="C44">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F44">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="H44">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I44" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="L44">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>10</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3223,37 +3223,37 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="C45">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="F45">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="H45">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I45" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="J45">
         <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>10</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3273,37 +3273,37 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F46">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="H46">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="L46">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         <v>10</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3323,37 +3323,37 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="C47">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="H47">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>10</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3373,37 +3373,37 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="C48">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="F48">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="H48">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I48" t="s">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="L48">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3415,7 +3415,7 @@
         <v>10</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3423,37 +3423,37 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="C49">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="F49">
         <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="H49">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="J49">
         <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>10</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3473,34 +3473,34 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="C50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="F50">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="H50">
         <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L50">
         <v>50</v>
@@ -3515,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3523,7 +3523,7 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3532,25 +3532,25 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F51">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="H51">
         <v>49</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="J51">
         <v>100</v>
       </c>
       <c r="K51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L51">
         <v>50</v>
@@ -3565,6 +3565,2506 @@
         <v>10</v>
       </c>
       <c r="P51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52">
+        <v>0.2</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>50</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52" t="s">
+        <v>51</v>
+      </c>
+      <c r="L52">
+        <v>14</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52">
+        <v>10</v>
+      </c>
+      <c r="P52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53">
+        <v>0.2</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53">
+        <v>100</v>
+      </c>
+      <c r="K53" t="s">
+        <v>51</v>
+      </c>
+      <c r="L53">
+        <v>14</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53">
+        <v>10</v>
+      </c>
+      <c r="P53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54">
+        <v>0.4</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>126</v>
+      </c>
+      <c r="H54">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>127</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54">
+        <v>12</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+      <c r="P54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55">
+        <v>0.4</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>126</v>
+      </c>
+      <c r="H55">
+        <v>11</v>
+      </c>
+      <c r="I55" t="s">
+        <v>127</v>
+      </c>
+      <c r="J55">
+        <v>100</v>
+      </c>
+      <c r="K55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55">
+        <v>12</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>22</v>
+      </c>
+      <c r="O55">
+        <v>10</v>
+      </c>
+      <c r="P55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56">
+        <v>0.6</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>130</v>
+      </c>
+      <c r="H56">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56" t="s">
+        <v>51</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O56">
+        <v>10</v>
+      </c>
+      <c r="P56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57">
+        <v>0.6</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>131</v>
+      </c>
+      <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57" t="s">
+        <v>51</v>
+      </c>
+      <c r="L57">
+        <v>14</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O57">
+        <v>10</v>
+      </c>
+      <c r="P57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58">
+        <v>0.8</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>134</v>
+      </c>
+      <c r="H58">
+        <v>49</v>
+      </c>
+      <c r="I58" t="s">
+        <v>135</v>
+      </c>
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58" t="s">
+        <v>37</v>
+      </c>
+      <c r="L58">
+        <v>50</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58">
+        <v>10</v>
+      </c>
+      <c r="P58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59">
+        <v>0.8</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>134</v>
+      </c>
+      <c r="H59">
+        <v>49</v>
+      </c>
+      <c r="I59" t="s">
+        <v>135</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59" t="s">
+        <v>37</v>
+      </c>
+      <c r="L59">
+        <v>50</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59">
+        <v>10</v>
+      </c>
+      <c r="P59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60">
+        <v>49</v>
+      </c>
+      <c r="I60" t="s">
+        <v>64</v>
+      </c>
+      <c r="J60">
+        <v>100</v>
+      </c>
+      <c r="K60" t="s">
+        <v>37</v>
+      </c>
+      <c r="L60">
+        <v>50</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60">
+        <v>10</v>
+      </c>
+      <c r="P60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61">
+        <v>49</v>
+      </c>
+      <c r="I61" t="s">
+        <v>64</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
+      </c>
+      <c r="K61" t="s">
+        <v>37</v>
+      </c>
+      <c r="L61">
+        <v>50</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O61">
+        <v>10</v>
+      </c>
+      <c r="P61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62">
+        <v>0.2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>139</v>
+      </c>
+      <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
+        <v>140</v>
+      </c>
+      <c r="J62">
+        <v>100</v>
+      </c>
+      <c r="K62" t="s">
+        <v>87</v>
+      </c>
+      <c r="L62">
+        <v>11</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>22</v>
+      </c>
+      <c r="O62">
+        <v>10</v>
+      </c>
+      <c r="P62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63">
+        <v>0.2</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>139</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63" t="s">
+        <v>140</v>
+      </c>
+      <c r="J63">
+        <v>100</v>
+      </c>
+      <c r="K63" t="s">
+        <v>87</v>
+      </c>
+      <c r="L63">
+        <v>11</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63">
+        <v>10</v>
+      </c>
+      <c r="P63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64">
+        <v>0.4</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>143</v>
+      </c>
+      <c r="H64">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>144</v>
+      </c>
+      <c r="J64">
+        <v>100</v>
+      </c>
+      <c r="K64" t="s">
+        <v>51</v>
+      </c>
+      <c r="L64">
+        <v>14</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>22</v>
+      </c>
+      <c r="O64">
+        <v>10</v>
+      </c>
+      <c r="P64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65">
+        <v>0.4</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>143</v>
+      </c>
+      <c r="H65">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>144</v>
+      </c>
+      <c r="J65">
+        <v>100</v>
+      </c>
+      <c r="K65" t="s">
+        <v>51</v>
+      </c>
+      <c r="L65">
+        <v>14</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65">
+        <v>10</v>
+      </c>
+      <c r="P65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66">
+        <v>0.6</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>147</v>
+      </c>
+      <c r="H66">
+        <v>11</v>
+      </c>
+      <c r="I66" t="s">
+        <v>148</v>
+      </c>
+      <c r="J66">
+        <v>100</v>
+      </c>
+      <c r="K66" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66">
+        <v>12</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66">
+        <v>10</v>
+      </c>
+      <c r="P66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67">
+        <v>0.6</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>147</v>
+      </c>
+      <c r="H67">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>148</v>
+      </c>
+      <c r="J67">
+        <v>100</v>
+      </c>
+      <c r="K67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67">
+        <v>12</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67">
+        <v>10</v>
+      </c>
+      <c r="P67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68">
+        <v>0.8</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>151</v>
+      </c>
+      <c r="H68">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s">
+        <v>152</v>
+      </c>
+      <c r="J68">
+        <v>100</v>
+      </c>
+      <c r="K68" t="s">
+        <v>153</v>
+      </c>
+      <c r="L68">
+        <v>26</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>22</v>
+      </c>
+      <c r="O68">
+        <v>10</v>
+      </c>
+      <c r="P68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69">
+        <v>0.8</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>150</v>
+      </c>
+      <c r="F69">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>151</v>
+      </c>
+      <c r="H69">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s">
+        <v>152</v>
+      </c>
+      <c r="J69">
+        <v>100</v>
+      </c>
+      <c r="K69" t="s">
+        <v>153</v>
+      </c>
+      <c r="L69">
+        <v>26</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>22</v>
+      </c>
+      <c r="O69">
+        <v>10</v>
+      </c>
+      <c r="P69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70">
+        <v>48</v>
+      </c>
+      <c r="G70" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70">
+        <v>49</v>
+      </c>
+      <c r="I70" t="s">
+        <v>41</v>
+      </c>
+      <c r="J70">
+        <v>100</v>
+      </c>
+      <c r="K70" t="s">
+        <v>37</v>
+      </c>
+      <c r="L70">
+        <v>50</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>22</v>
+      </c>
+      <c r="O70">
+        <v>10</v>
+      </c>
+      <c r="P70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71">
+        <v>48</v>
+      </c>
+      <c r="G71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71">
+        <v>49</v>
+      </c>
+      <c r="I71" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71">
+        <v>100</v>
+      </c>
+      <c r="K71" t="s">
+        <v>37</v>
+      </c>
+      <c r="L71">
+        <v>50</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>22</v>
+      </c>
+      <c r="O71">
+        <v>10</v>
+      </c>
+      <c r="P71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72">
+        <v>0.2</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>157</v>
+      </c>
+      <c r="H72">
+        <v>10</v>
+      </c>
+      <c r="I72" t="s">
+        <v>158</v>
+      </c>
+      <c r="J72">
+        <v>100</v>
+      </c>
+      <c r="K72" t="s">
+        <v>87</v>
+      </c>
+      <c r="L72">
+        <v>11</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O72">
+        <v>10</v>
+      </c>
+      <c r="P72" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73">
+        <v>0.2</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>157</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>158</v>
+      </c>
+      <c r="J73">
+        <v>100</v>
+      </c>
+      <c r="K73" t="s">
+        <v>87</v>
+      </c>
+      <c r="L73">
+        <v>11</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O73">
+        <v>10</v>
+      </c>
+      <c r="P73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74">
+        <v>0.4</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>160</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>161</v>
+      </c>
+      <c r="H74">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s">
+        <v>162</v>
+      </c>
+      <c r="J74">
+        <v>100</v>
+      </c>
+      <c r="K74" t="s">
+        <v>56</v>
+      </c>
+      <c r="L74">
+        <v>18</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>22</v>
+      </c>
+      <c r="O74">
+        <v>10</v>
+      </c>
+      <c r="P74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75">
+        <v>0.4</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>161</v>
+      </c>
+      <c r="H75">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s">
+        <v>162</v>
+      </c>
+      <c r="J75">
+        <v>100</v>
+      </c>
+      <c r="K75" t="s">
+        <v>56</v>
+      </c>
+      <c r="L75">
+        <v>18</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O75">
+        <v>10</v>
+      </c>
+      <c r="P75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76">
+        <v>0.6</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>164</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>165</v>
+      </c>
+      <c r="H76">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>166</v>
+      </c>
+      <c r="J76">
+        <v>100</v>
+      </c>
+      <c r="K76" t="s">
+        <v>51</v>
+      </c>
+      <c r="L76">
+        <v>14</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O76">
+        <v>10</v>
+      </c>
+      <c r="P76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77">
+        <v>0.6</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77" t="s">
+        <v>165</v>
+      </c>
+      <c r="H77">
+        <v>13</v>
+      </c>
+      <c r="I77" t="s">
+        <v>166</v>
+      </c>
+      <c r="J77">
+        <v>100</v>
+      </c>
+      <c r="K77" t="s">
+        <v>51</v>
+      </c>
+      <c r="L77">
+        <v>14</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>22</v>
+      </c>
+      <c r="O77">
+        <v>10</v>
+      </c>
+      <c r="P77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78">
+        <v>0.8</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78">
+        <v>38</v>
+      </c>
+      <c r="G78" t="s">
+        <v>169</v>
+      </c>
+      <c r="H78">
+        <v>49</v>
+      </c>
+      <c r="I78" t="s">
+        <v>170</v>
+      </c>
+      <c r="J78">
+        <v>100</v>
+      </c>
+      <c r="K78" t="s">
+        <v>37</v>
+      </c>
+      <c r="L78">
+        <v>50</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>22</v>
+      </c>
+      <c r="O78">
+        <v>10</v>
+      </c>
+      <c r="P78" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79">
+        <v>0.8</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>168</v>
+      </c>
+      <c r="F79">
+        <v>38</v>
+      </c>
+      <c r="G79" t="s">
+        <v>169</v>
+      </c>
+      <c r="H79">
+        <v>49</v>
+      </c>
+      <c r="I79" t="s">
+        <v>170</v>
+      </c>
+      <c r="J79">
+        <v>100</v>
+      </c>
+      <c r="K79" t="s">
+        <v>37</v>
+      </c>
+      <c r="L79">
+        <v>50</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>22</v>
+      </c>
+      <c r="O79">
+        <v>10</v>
+      </c>
+      <c r="P79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
+        <v>172</v>
+      </c>
+      <c r="H80">
+        <v>49</v>
+      </c>
+      <c r="I80" t="s">
+        <v>173</v>
+      </c>
+      <c r="J80">
+        <v>100</v>
+      </c>
+      <c r="K80" t="s">
+        <v>37</v>
+      </c>
+      <c r="L80">
+        <v>50</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80">
+        <v>10</v>
+      </c>
+      <c r="P80" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s">
+        <v>172</v>
+      </c>
+      <c r="H81">
+        <v>49</v>
+      </c>
+      <c r="I81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J81">
+        <v>100</v>
+      </c>
+      <c r="K81" t="s">
+        <v>37</v>
+      </c>
+      <c r="L81">
+        <v>50</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>22</v>
+      </c>
+      <c r="O81">
+        <v>10</v>
+      </c>
+      <c r="P81" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82">
+        <v>0.2</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>105</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>176</v>
+      </c>
+      <c r="H82">
+        <v>10</v>
+      </c>
+      <c r="I82" t="s">
+        <v>177</v>
+      </c>
+      <c r="J82">
+        <v>100</v>
+      </c>
+      <c r="K82" t="s">
+        <v>87</v>
+      </c>
+      <c r="L82">
+        <v>11</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>22</v>
+      </c>
+      <c r="O82">
+        <v>10</v>
+      </c>
+      <c r="P82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83">
+        <v>0.2</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>105</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>176</v>
+      </c>
+      <c r="H83">
+        <v>10</v>
+      </c>
+      <c r="I83" t="s">
+        <v>177</v>
+      </c>
+      <c r="J83">
+        <v>100</v>
+      </c>
+      <c r="K83" t="s">
+        <v>87</v>
+      </c>
+      <c r="L83">
+        <v>11</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>22</v>
+      </c>
+      <c r="O83">
+        <v>10</v>
+      </c>
+      <c r="P83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84">
+        <v>0.4</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>179</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>180</v>
+      </c>
+      <c r="H84">
+        <v>11</v>
+      </c>
+      <c r="I84" t="s">
+        <v>181</v>
+      </c>
+      <c r="J84">
+        <v>100</v>
+      </c>
+      <c r="K84" t="s">
+        <v>21</v>
+      </c>
+      <c r="L84">
+        <v>12</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>22</v>
+      </c>
+      <c r="O84">
+        <v>10</v>
+      </c>
+      <c r="P84" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85">
+        <v>0.4</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>179</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>180</v>
+      </c>
+      <c r="H85">
+        <v>11</v>
+      </c>
+      <c r="I85" t="s">
+        <v>181</v>
+      </c>
+      <c r="J85">
+        <v>100</v>
+      </c>
+      <c r="K85" t="s">
+        <v>21</v>
+      </c>
+      <c r="L85">
+        <v>12</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>22</v>
+      </c>
+      <c r="O85">
+        <v>10</v>
+      </c>
+      <c r="P85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86">
+        <v>0.6</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>183</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86" t="s">
+        <v>184</v>
+      </c>
+      <c r="H86">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>185</v>
+      </c>
+      <c r="J86">
+        <v>100</v>
+      </c>
+      <c r="K86" t="s">
+        <v>186</v>
+      </c>
+      <c r="L86">
+        <v>15</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>22</v>
+      </c>
+      <c r="O86">
+        <v>10</v>
+      </c>
+      <c r="P86" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87">
+        <v>0.6</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>183</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>184</v>
+      </c>
+      <c r="H87">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>185</v>
+      </c>
+      <c r="J87">
+        <v>100</v>
+      </c>
+      <c r="K87" t="s">
+        <v>186</v>
+      </c>
+      <c r="L87">
+        <v>15</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>22</v>
+      </c>
+      <c r="O87">
+        <v>10</v>
+      </c>
+      <c r="P87" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88">
+        <v>0.8</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>189</v>
+      </c>
+      <c r="H88">
+        <v>23</v>
+      </c>
+      <c r="I88" t="s">
+        <v>190</v>
+      </c>
+      <c r="J88">
+        <v>100</v>
+      </c>
+      <c r="K88" t="s">
+        <v>191</v>
+      </c>
+      <c r="L88">
+        <v>24</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>22</v>
+      </c>
+      <c r="O88">
+        <v>10</v>
+      </c>
+      <c r="P88" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89">
+        <v>0.8</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>189</v>
+      </c>
+      <c r="H89">
+        <v>23</v>
+      </c>
+      <c r="I89" t="s">
+        <v>190</v>
+      </c>
+      <c r="J89">
+        <v>100</v>
+      </c>
+      <c r="K89" t="s">
+        <v>191</v>
+      </c>
+      <c r="L89">
+        <v>24</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>22</v>
+      </c>
+      <c r="O89">
+        <v>10</v>
+      </c>
+      <c r="P89" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F90">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s">
+        <v>193</v>
+      </c>
+      <c r="H90">
+        <v>49</v>
+      </c>
+      <c r="I90" t="s">
+        <v>194</v>
+      </c>
+      <c r="J90">
+        <v>100</v>
+      </c>
+      <c r="K90" t="s">
+        <v>37</v>
+      </c>
+      <c r="L90">
+        <v>50</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>22</v>
+      </c>
+      <c r="O90">
+        <v>10</v>
+      </c>
+      <c r="P90" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>62</v>
+      </c>
+      <c r="F91">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s">
+        <v>193</v>
+      </c>
+      <c r="H91">
+        <v>49</v>
+      </c>
+      <c r="I91" t="s">
+        <v>194</v>
+      </c>
+      <c r="J91">
+        <v>100</v>
+      </c>
+      <c r="K91" t="s">
+        <v>37</v>
+      </c>
+      <c r="L91">
+        <v>50</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>22</v>
+      </c>
+      <c r="O91">
+        <v>10</v>
+      </c>
+      <c r="P91" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92">
+        <v>0.2</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>197</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>198</v>
+      </c>
+      <c r="H92">
+        <v>11</v>
+      </c>
+      <c r="I92" t="s">
+        <v>199</v>
+      </c>
+      <c r="J92">
+        <v>100</v>
+      </c>
+      <c r="K92" t="s">
+        <v>21</v>
+      </c>
+      <c r="L92">
+        <v>12</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>22</v>
+      </c>
+      <c r="O92">
+        <v>10</v>
+      </c>
+      <c r="P92" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93">
+        <v>0.2</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>197</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>198</v>
+      </c>
+      <c r="H93">
+        <v>11</v>
+      </c>
+      <c r="I93" t="s">
+        <v>199</v>
+      </c>
+      <c r="J93">
+        <v>100</v>
+      </c>
+      <c r="K93" t="s">
+        <v>21</v>
+      </c>
+      <c r="L93">
+        <v>12</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
+        <v>22</v>
+      </c>
+      <c r="O93">
+        <v>10</v>
+      </c>
+      <c r="P93" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94">
+        <v>0.4</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>201</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>202</v>
+      </c>
+      <c r="H94">
+        <v>25</v>
+      </c>
+      <c r="I94" t="s">
+        <v>203</v>
+      </c>
+      <c r="J94">
+        <v>100</v>
+      </c>
+      <c r="K94" t="s">
+        <v>153</v>
+      </c>
+      <c r="L94">
+        <v>26</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>22</v>
+      </c>
+      <c r="O94">
+        <v>10</v>
+      </c>
+      <c r="P94" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95">
+        <v>0.4</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>201</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>202</v>
+      </c>
+      <c r="H95">
+        <v>25</v>
+      </c>
+      <c r="I95" t="s">
+        <v>203</v>
+      </c>
+      <c r="J95">
+        <v>100</v>
+      </c>
+      <c r="K95" t="s">
+        <v>153</v>
+      </c>
+      <c r="L95">
+        <v>26</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
+        <v>22</v>
+      </c>
+      <c r="O95">
+        <v>10</v>
+      </c>
+      <c r="P95" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96">
+        <v>0.6</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>205</v>
+      </c>
+      <c r="F96">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s">
+        <v>206</v>
+      </c>
+      <c r="H96">
+        <v>39</v>
+      </c>
+      <c r="I96" t="s">
+        <v>207</v>
+      </c>
+      <c r="J96">
+        <v>100</v>
+      </c>
+      <c r="K96" t="s">
+        <v>208</v>
+      </c>
+      <c r="L96">
+        <v>40</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
+        <v>22</v>
+      </c>
+      <c r="O96">
+        <v>10</v>
+      </c>
+      <c r="P96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97">
+        <v>0.6</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>205</v>
+      </c>
+      <c r="F97">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s">
+        <v>206</v>
+      </c>
+      <c r="H97">
+        <v>39</v>
+      </c>
+      <c r="I97" t="s">
+        <v>207</v>
+      </c>
+      <c r="J97">
+        <v>100</v>
+      </c>
+      <c r="K97" t="s">
+        <v>208</v>
+      </c>
+      <c r="L97">
+        <v>40</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
+        <v>22</v>
+      </c>
+      <c r="O97">
+        <v>10</v>
+      </c>
+      <c r="P97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98">
+        <v>0.8</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>210</v>
+      </c>
+      <c r="F98">
+        <v>38</v>
+      </c>
+      <c r="G98" t="s">
+        <v>40</v>
+      </c>
+      <c r="H98">
+        <v>49</v>
+      </c>
+      <c r="I98" t="s">
+        <v>211</v>
+      </c>
+      <c r="J98">
+        <v>100</v>
+      </c>
+      <c r="K98" t="s">
+        <v>37</v>
+      </c>
+      <c r="L98">
+        <v>50</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>22</v>
+      </c>
+      <c r="O98">
+        <v>10</v>
+      </c>
+      <c r="P98" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99">
+        <v>0.8</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>210</v>
+      </c>
+      <c r="F99">
+        <v>38</v>
+      </c>
+      <c r="G99" t="s">
+        <v>40</v>
+      </c>
+      <c r="H99">
+        <v>49</v>
+      </c>
+      <c r="I99" t="s">
+        <v>211</v>
+      </c>
+      <c r="J99">
+        <v>100</v>
+      </c>
+      <c r="K99" t="s">
+        <v>37</v>
+      </c>
+      <c r="L99">
+        <v>50</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>22</v>
+      </c>
+      <c r="O99">
+        <v>10</v>
+      </c>
+      <c r="P99" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>39</v>
+      </c>
+      <c r="F100">
+        <v>48</v>
+      </c>
+      <c r="G100" t="s">
+        <v>40</v>
+      </c>
+      <c r="H100">
+        <v>49</v>
+      </c>
+      <c r="I100" t="s">
+        <v>41</v>
+      </c>
+      <c r="J100">
+        <v>100</v>
+      </c>
+      <c r="K100" t="s">
+        <v>37</v>
+      </c>
+      <c r="L100">
+        <v>50</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
+        <v>22</v>
+      </c>
+      <c r="O100">
+        <v>10</v>
+      </c>
+      <c r="P100" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101">
+        <v>48</v>
+      </c>
+      <c r="G101" t="s">
+        <v>40</v>
+      </c>
+      <c r="H101">
+        <v>49</v>
+      </c>
+      <c r="I101" t="s">
+        <v>41</v>
+      </c>
+      <c r="J101">
+        <v>100</v>
+      </c>
+      <c r="K101" t="s">
+        <v>37</v>
+      </c>
+      <c r="L101">
+        <v>50</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
+        <v>22</v>
+      </c>
+      <c r="O101">
+        <v>10</v>
+      </c>
+      <c r="P101" t="s">
         <v>213</v>
       </c>
     </row>

--- a/experimental results/e5000_Taxi.xlsx
+++ b/experimental results/e5000_Taxi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="215">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -85,451 +85,454 @@
     <t>Omitted</t>
   </si>
   <si>
-    <t>['[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 5, 6, 7, 9, 10, 11, 12, 14, 15, 20, 22, 24, 26, 27, 28, 30, 31, 36, 37, 38]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '376', '476', '476', '476', '376', '476', '476', '476', '476', '376', '476', '476', '376', '276', '256', '236', '336', '236', '336', '236', '336', '236', '336', '436', '436', '336', '436', '436', '336', '236', '136', '116', '216', '316', '416', '316', '216', '116', '16', '0']</t>
+    <t>['[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[8, 10, 12]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '216', '116', '216', '116', '216', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15]</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[3, 4, 9, 10, 11, 13, 15, 16, 17, 20, 24, 25, 26, 27, 28]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '476', '476', '376', '276', '256', '236', '336', '436', '436', '336', '436', '336', '436', '436', '436', '336', '236', '336', '236', '136', '116', '216', '316', '416', '416', '416', '316', '216', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33]</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 7, 8, 9, 10, 11, 12, 14, 15, 17, 22, 23, 24, 25, 26, 29, 30, 31, 32, 37, 38, 39, 40, 41, 44, 45, 46, 47, 48]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '376', '476', '476', '376', '476', '376', '276', '256', '236', '336', '436', '436', '436', '436', '336', '236', '336', '436', '436', '436', '336', '236', '136', '116', '216', '316', '416', '416', '416', '316', '216', '316', '416', '416', '416', '416', '316']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[0,2,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[6, 8]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '256', '236', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 6, 8, 10, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '276', '256', '236', '136', '116', '16', '0']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43]</t>
   </si>
   <si>
-    <t>['[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 5, 7, 9, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 25, 26, 27, 29, 30, 35]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '376', '476', '476', '376', '476', '376', '476', '376', '276', '256', '236', '336', '436', '436', '436', '436', '436', '436', '436', '436', '436', '336', '436', '436', '436', '336', '436', '436', '336', '236', '136', '116', '216', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38]</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 6, 7, 9, 10, 11, 13, 18, 19, 20, 21, 22, 24, 25, 27, 28, 29, 30, 31, 33, 34, 36, 37, 38, 40, 41, 42, 43, 44, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '476', '476', '476', '476', '476', '376', '476', '476', '476', '376', '476', '376', '276', '256', '236', '336', '436', '436', '436', '436', '336', '436', '436', '336', '436', '436', '436', '436', '436', '336', '436', '436', '336', '436', '436', '436', '336', '436', '436', '436', '436', '436', '336', '236', '336', '436', '436']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[0,2,2,3,4,5]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[3, 8]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '396', '376', '276', '256', '236', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[3, 5, 10, 12]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '396', '376', '396', '376', '276', '256', '236', '256', '236', '256', '236', '136', '116', '16', '0']</t>
+    <t>['[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 6, 8, 10, 12, 14, 16, 18, 20, 22, 24, 26, 28, 30, 32, 34, 36, 38, 40, 42, 44, 46, 48]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476']</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,2,5]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 5]</t>
+  </si>
+  <si>
+    <t>[4, 3, 4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '492', '472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 5, 7, 9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33]</t>
+  </si>
+  <si>
+    <t>[4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 5, 7, 9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49]</t>
+  </si>
+  <si>
+    <t>[4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4]</t>
+  </si>
+  <si>
+    <t>['472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,0,5]</t>
+  </si>
+  <si>
+    <t>[4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3]</t>
+  </si>
+  <si>
+    <t>[4, 4, 4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '472', '472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>[4, 4, 4, 4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '472', '472', '472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+  </si>
+  <si>
+    <t>['472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472']</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,0]</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[9, 11]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[9, 11, 13, 15, 17]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19]</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>[9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[0,2,1,3,4,5]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 5, 10, 12, 14, 16]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '376', '396', '376', '276', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 6, 9, 11, 16, 20]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 3, 1, 3, 1, 1, 3, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '496', '476', '496', '476', '376', '396', '376', '396', '376', '276', '256', '236', '256', '236', '136', '116', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,3,2,1,4,5]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '216', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 6, 9, 10, 12, 13, 14]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 3, 3, 0, 3, 1, 1, 1, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '376', '276', '256', '156', '256', '236', '216', '216', '116', '116', '116', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16]</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[2, 5, 7, 11, 12, 14, 15]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 3, 0, 3, 0, 3, 3, 1, 1, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '376', '276', '176', '276', '176', '276', '256', '236', '216', '216', '116', '116', '116', '16', '0']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
   </si>
   <si>
-    <t>['[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 6, 8, 10, 12, 14, 16, 18, 20, 23, 25, 27, 29, 31, 33, 40, 42, 44, 46]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '276', '256', '236', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 6, 8, 10, 12, 14, 16, 18, 20, 22, 24, 26, 28, 30, 32, 34, 36, 38, 40, 42, 44, 46, 48]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,2,5]</t>
-  </si>
-  <si>
-    <t>[1, 3]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 5, 7]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 3, 4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '492', '472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 5, 7, 9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492']</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,0,5]</t>
-  </si>
-  <si>
-    <t>[4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3]</t>
-  </si>
-  <si>
-    <t>[4, 4, 4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '472', '472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>[4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
-  </si>
-  <si>
-    <t>['472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,0]</t>
-  </si>
-  <si>
-    <t>[9, 11]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>[9, 11, 13]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15]</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[9, 11, 13, 15, 17]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19]</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[0,2,1,3,4,5]</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '396', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[6, 8]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '256', '236', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 6, 8, 11, 13, 15, 17, 19, 21, 26, 28, 30, 32, 34, 36, 38, 40, 42, 44, 46, 48]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '276', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[0,3,2,1,4,5]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 9, 10, 11]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 3, 3, 1, 3, 3, 3, 3, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '376', '376', '276', '256', '236', '136', '36', '36', '36', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[5, 9]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 0, 3, 1, 3, 3, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '156', '256', '236', '136', '36', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 5, 8, 11, 12, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 3, 3, 0, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '376', '376', '276', '256', '156', '256', '236', '216', '216', '116', '116', '116', '116', '116', '116', '116', '116', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]']</t>
+    <t>['[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 32, 33, 34, 36, 38, 40, 42, 44, 46, 48]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '376', '376', '376', '276', '176', '276', '176', '276', '176', '276', '176', '276', '176', '276', '176', '276', '176', '276']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]']</t>
   </si>
   <si>
     <t>[0,4,2,3,1,5]</t>
   </si>
   <si>
-    <t>[4, 1, 1, 3, 3, 1, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 6, 10, 11, 14, 15]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 3, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '376', '376', '376', '376', '276', '256', '236', '236', '236', '136', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[1, 4, 5]</t>
+    <t>[4, 0, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '372', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[1, 4, 6]</t>
   </si>
   <si>
     <t>[4, 0, 4, 1, 1, 1, 1, 3, 3, 1, 3, 1, 5]</t>
   </si>
   <si>
-    <t>['472', '372', '472', '476', '476', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 5, 7, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>[4, 0, 4, 0, 4, 0, 4, 0, 4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['472', '372', '472', '372', '472', '372', '472', '372', '472', '476', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '376', '276', '256', '236', '136', '116', '116', '116', '116']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]']</t>
+    <t>['472', '372', '472', '476', '476', '376', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>[1, 4, 6, 12, 13]</t>
+  </si>
+  <si>
+    <t>[4, 0, 4, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '372', '472', '476', '476', '376', '376', '276', '256', '236', '136', '116', '116', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 5, 7, 9, 11, 13, 15, 18, 19, 20, 21, 22, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '476', '476', '476', '476', '476', '476', '376', '276', '256', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '136', '116', '116', '116', '116', '116', '116']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]']</t>
   </si>
   <si>
     <t>[4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4]</t>
@@ -538,61 +541,61 @@
     <t>['472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372']</t>
   </si>
   <si>
-    <t>['[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]']</t>
+    <t>['[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]']</t>
   </si>
   <si>
     <t>[0,5,2,3,4,1]</t>
   </si>
   <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[3, 7]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 3, 3, 1, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '376', '276', '256', '236', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[2, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>[4, 1, 4, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '472', '476', '376', '276', '256', '236', '136', '116', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14]</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 7, 8, 9, 10, 11, 12, 13, 17, 18, 21]</t>
-  </si>
-  <si>
-    <t>[4, 1, 4, 1, 4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 3, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '472', '476', '472', '476', '376', '376', '376', '376', '376', '376', '376', '376', '276', '256', '236', '236', '236', '136', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23]</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]']</t>
+    <t>[2, 10]</t>
+  </si>
+  <si>
+    <t>[4, 1, 4, 1, 1, 3, 3, 1, 3, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '472', '476', '376', '276', '256', '236', '136', '116', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[9, 10]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 5, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '16', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[8, 9, 11, 12]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 1, 1, 5, 5, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '116', '116', '16', '16', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 6, 8, 11, 17, 18, 19, 20, 21, 23, 24, 25, 26]</t>
+  </si>
+  <si>
+    <t>[4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 1, 1, 5, 5, 5, 5, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '376', '376', '276', '256', '236', '136', '116', '116', '116', '116', '116', '116', '16', '16', '16', '16', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]']</t>
   </si>
   <si>
     <t>[4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4]</t>
@@ -601,61 +604,61 @@
     <t>['472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476']</t>
   </si>
   <si>
-    <t>['[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]']</t>
+    <t>['[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]']</t>
   </si>
   <si>
     <t>[1,0,2,3,4,5]</t>
   </si>
   <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '216', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 5, 6, 8, 9, 16, 18, 20, 22]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '376', '476', '476', '376', '476', '476', '376', '276', '256', '236', '136', '116', '216', '116', '216', '116', '216', '116', '216', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[2, 7, 11, 12, 13, 15, 17, 18, 20, 22, 24, 25, 27, 28, 30, 31, 33, 34]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 3, 3, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '376', '276', '256', '236', '336', '236', '136', '116', '216', '316', '416', '316', '416', '316', '416', '416', '316', '416', '316', '416', '316', '416', '416', '316', '416', '416', '316', '416', '416', '316', '416', '416', '316', '216', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39]</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 15, 17, 18, 20, 21, 23, 24, 25, 27, 29, 31, 32, 33, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '476', '376', '476', '476', '376', '476', '476', '376', '476', '476', '476', '376', '476', '376', '476', '376', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]']</t>
+    <t>[2, 3, 5, 6, 8]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '376', '476', '476', '376', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[2, 9]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '376', '276', '256', '236', '136', '116', '216', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 10, 11, 12, 15]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '476', '476', '376', '276', '256', '236', '336', '436', '436', '336', '236', '336', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20]</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 6, 7, 8, 9, 10, 11, 13, 15, 16, 17, 18, 19, 20, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 33, 34, 35, 37, 38, 39, 40, 41, 42, 43, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '376', '476', '376', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '476', '476']</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]']</t>
   </si>
 </sst>
 </file>
@@ -1185,13 +1188,13 @@
         <v>24</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -1203,7 +1206,7 @@
         <v>27</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1235,13 +1238,13 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -1253,7 +1256,7 @@
         <v>27</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1285,13 +1288,13 @@
         <v>29</v>
       </c>
       <c r="F6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
       </c>
       <c r="H6">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -1303,7 +1306,7 @@
         <v>32</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1335,13 +1338,13 @@
         <v>29</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
       </c>
       <c r="H7">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
         <v>31</v>
@@ -1353,7 +1356,7 @@
         <v>32</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1385,7 +1388,7 @@
         <v>34</v>
       </c>
       <c r="F8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
@@ -1435,7 +1438,7 @@
         <v>34</v>
       </c>
       <c r="F9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -1582,19 +1585,19 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>44</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12">
         <v>100</v>
@@ -1615,7 +1618,7 @@
         <v>10</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1632,19 +1635,19 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>44</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
       </c>
       <c r="H13">
         <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13">
         <v>100</v>
@@ -1665,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1682,40 +1685,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>48</v>
       </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
         <v>49</v>
       </c>
-      <c r="H14">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14" t="s">
         <v>50</v>
-      </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="K14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14">
-        <v>14</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14">
-        <v>10</v>
-      </c>
-      <c r="P14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1732,40 +1735,40 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>48</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
         <v>49</v>
       </c>
-      <c r="H15">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15" t="s">
         <v>50</v>
-      </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
-      <c r="K15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15">
-        <v>14</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15">
-        <v>10</v>
-      </c>
-      <c r="P15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1782,40 +1785,40 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
         <v>53</v>
       </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16" t="s">
         <v>54</v>
       </c>
-      <c r="H16">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16" t="s">
         <v>55</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16">
-        <v>18</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16">
-        <v>10</v>
-      </c>
-      <c r="P16" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1832,40 +1835,40 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
         <v>53</v>
       </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17" t="s">
         <v>54</v>
       </c>
-      <c r="H17">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17" t="s">
         <v>55</v>
-      </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
-      <c r="K17" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17">
-        <v>18</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17">
-        <v>10</v>
-      </c>
-      <c r="P17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1882,40 +1885,40 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
         <v>58</v>
       </c>
-      <c r="F18">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18" t="s">
         <v>59</v>
       </c>
-      <c r="H18">
-        <v>49</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18">
+        <v>44</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18" t="s">
         <v>60</v>
-      </c>
-      <c r="J18">
-        <v>100</v>
-      </c>
-      <c r="K18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18">
-        <v>50</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18">
-        <v>10</v>
-      </c>
-      <c r="P18" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1932,40 +1935,40 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
         <v>58</v>
       </c>
-      <c r="F19">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19" t="s">
         <v>59</v>
       </c>
-      <c r="H19">
-        <v>49</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19">
+        <v>44</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19" t="s">
         <v>60</v>
-      </c>
-      <c r="J19">
-        <v>100</v>
-      </c>
-      <c r="K19" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19">
-        <v>50</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19">
-        <v>10</v>
-      </c>
-      <c r="P19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1982,19 +1985,19 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20">
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20">
         <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20">
         <v>100</v>
@@ -2015,7 +2018,7 @@
         <v>10</v>
       </c>
       <c r="P20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2032,19 +2035,19 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21">
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21">
         <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J21">
         <v>100</v>
@@ -2065,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="P21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2073,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>0.2</v>
@@ -2082,40 +2085,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
         <v>68</v>
       </c>
-      <c r="H22">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22">
+        <v>12</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22">
+        <v>10</v>
+      </c>
+      <c r="P22" t="s">
         <v>69</v>
-      </c>
-      <c r="J22">
-        <v>100</v>
-      </c>
-      <c r="K22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22">
-        <v>14</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22">
-        <v>10</v>
-      </c>
-      <c r="P22" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2123,7 +2126,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>0.2</v>
@@ -2132,40 +2135,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>67</v>
       </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
         <v>68</v>
       </c>
-      <c r="H23">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23">
+        <v>12</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+      <c r="P23" t="s">
         <v>69</v>
-      </c>
-      <c r="J23">
-        <v>100</v>
-      </c>
-      <c r="K23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23">
-        <v>14</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23">
-        <v>10</v>
-      </c>
-      <c r="P23" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2173,7 +2176,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>0.4</v>
@@ -2182,19 +2185,19 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H24">
         <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -2215,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="P24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2223,7 +2226,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>0.4</v>
@@ -2232,19 +2235,19 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H25">
         <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -2265,7 +2268,7 @@
         <v>10</v>
       </c>
       <c r="P25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2273,7 +2276,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26">
         <v>0.6</v>
@@ -2285,13 +2288,13 @@
         <v>71</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
         <v>72</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
         <v>73</v>
@@ -2300,10 +2303,10 @@
         <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2315,7 +2318,7 @@
         <v>10</v>
       </c>
       <c r="P26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2323,7 +2326,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <v>0.6</v>
@@ -2335,13 +2338,13 @@
         <v>71</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
         <v>72</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
         <v>73</v>
@@ -2350,10 +2353,10 @@
         <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L27">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2365,7 +2368,7 @@
         <v>10</v>
       </c>
       <c r="P27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2373,7 +2376,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>0.8</v>
@@ -2382,40 +2385,40 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
         <v>76</v>
       </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
         <v>77</v>
       </c>
-      <c r="H28">
-        <v>17</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28">
+        <v>44</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+      <c r="P28" t="s">
         <v>78</v>
-      </c>
-      <c r="J28">
-        <v>100</v>
-      </c>
-      <c r="K28" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28">
-        <v>18</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28">
-        <v>10</v>
-      </c>
-      <c r="P28" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2423,7 +2426,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>0.8</v>
@@ -2432,40 +2435,40 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
         <v>76</v>
       </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
         <v>77</v>
       </c>
-      <c r="H29">
-        <v>17</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29">
+        <v>44</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29" t="s">
         <v>78</v>
-      </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
-      <c r="K29" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29">
-        <v>18</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29">
-        <v>10</v>
-      </c>
-      <c r="P29" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2473,7 +2476,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2482,19 +2485,19 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30">
         <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30">
         <v>49</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J30">
         <v>100</v>
@@ -2515,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="P30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2523,7 +2526,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2532,19 +2535,19 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31">
         <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31">
         <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J31">
         <v>100</v>
@@ -2565,7 +2568,7 @@
         <v>10</v>
       </c>
       <c r="P31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2573,7 +2576,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>0.2</v>
@@ -2582,25 +2585,25 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
         <v>85</v>
       </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32">
+        <v>100</v>
+      </c>
+      <c r="K32" t="s">
         <v>86</v>
-      </c>
-      <c r="J32">
-        <v>100</v>
-      </c>
-      <c r="K32" t="s">
-        <v>87</v>
       </c>
       <c r="L32">
         <v>11</v>
@@ -2615,7 +2618,7 @@
         <v>10</v>
       </c>
       <c r="P32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2623,7 +2626,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33">
         <v>0.2</v>
@@ -2632,25 +2635,25 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
         <v>85</v>
       </c>
-      <c r="H33">
-        <v>10</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33" t="s">
         <v>86</v>
-      </c>
-      <c r="J33">
-        <v>100</v>
-      </c>
-      <c r="K33" t="s">
-        <v>87</v>
       </c>
       <c r="L33">
         <v>11</v>
@@ -2665,7 +2668,7 @@
         <v>10</v>
       </c>
       <c r="P33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2673,7 +2676,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34">
         <v>0.4</v>
@@ -2682,28 +2685,28 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L34">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2715,7 +2718,7 @@
         <v>10</v>
       </c>
       <c r="P34" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2723,7 +2726,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35">
         <v>0.4</v>
@@ -2732,28 +2735,28 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2765,7 +2768,7 @@
         <v>10</v>
       </c>
       <c r="P35" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2773,7 +2776,7 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36">
         <v>0.6</v>
@@ -2782,40 +2785,40 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36" t="s">
+        <v>86</v>
+      </c>
+      <c r="L36">
+        <v>11</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36">
+        <v>10</v>
+      </c>
+      <c r="P36" t="s">
         <v>93</v>
-      </c>
-      <c r="L36">
-        <v>13</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
-        <v>22</v>
-      </c>
-      <c r="O36">
-        <v>10</v>
-      </c>
-      <c r="P36" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2823,7 +2826,7 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37">
         <v>0.6</v>
@@ -2832,40 +2835,40 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37">
+        <v>11</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37" t="s">
         <v>93</v>
-      </c>
-      <c r="L37">
-        <v>13</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
-        <v>22</v>
-      </c>
-      <c r="O37">
-        <v>10</v>
-      </c>
-      <c r="P37" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2873,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38">
         <v>0.8</v>
@@ -2882,28 +2885,28 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H38">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2915,7 +2918,7 @@
         <v>10</v>
       </c>
       <c r="P38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2923,7 +2926,7 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39">
         <v>0.8</v>
@@ -2932,28 +2935,28 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2965,7 +2968,7 @@
         <v>10</v>
       </c>
       <c r="P39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2973,7 +2976,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2982,19 +2985,19 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F40">
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H40">
         <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J40">
         <v>100</v>
@@ -3015,7 +3018,7 @@
         <v>10</v>
       </c>
       <c r="P40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3023,7 +3026,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3032,19 +3035,19 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F41">
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H41">
         <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J41">
         <v>100</v>
@@ -3065,7 +3068,7 @@
         <v>10</v>
       </c>
       <c r="P41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3073,7 +3076,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C42">
         <v>0.2</v>
@@ -3082,28 +3085,28 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H42">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I42" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3115,7 +3118,7 @@
         <v>10</v>
       </c>
       <c r="P42" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3123,7 +3126,7 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C43">
         <v>0.2</v>
@@ -3132,28 +3135,28 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H43">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -3165,7 +3168,7 @@
         <v>10</v>
       </c>
       <c r="P43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3173,7 +3176,7 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C44">
         <v>0.4</v>
@@ -3182,19 +3185,19 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H44">
         <v>11</v>
       </c>
       <c r="I44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J44">
         <v>100</v>
@@ -3215,7 +3218,7 @@
         <v>10</v>
       </c>
       <c r="P44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3223,7 +3226,7 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C45">
         <v>0.4</v>
@@ -3232,19 +3235,19 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H45">
         <v>11</v>
       </c>
       <c r="I45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J45">
         <v>100</v>
@@ -3265,7 +3268,7 @@
         <v>10</v>
       </c>
       <c r="P45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3273,7 +3276,7 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C46">
         <v>0.6</v>
@@ -3282,40 +3285,40 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
         <v>109</v>
       </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="H46">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
         <v>110</v>
       </c>
-      <c r="H46">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46" t="s">
+        <v>54</v>
+      </c>
+      <c r="L46">
+        <v>14</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>22</v>
+      </c>
+      <c r="O46">
+        <v>10</v>
+      </c>
+      <c r="P46" t="s">
         <v>111</v>
-      </c>
-      <c r="J46">
-        <v>100</v>
-      </c>
-      <c r="K46" t="s">
-        <v>112</v>
-      </c>
-      <c r="L46">
-        <v>16</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O46">
-        <v>10</v>
-      </c>
-      <c r="P46" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3323,7 +3326,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C47">
         <v>0.6</v>
@@ -3332,40 +3335,40 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
         <v>109</v>
       </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="H47">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
         <v>110</v>
       </c>
-      <c r="H47">
-        <v>15</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47" t="s">
+        <v>54</v>
+      </c>
+      <c r="L47">
+        <v>14</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47">
+        <v>10</v>
+      </c>
+      <c r="P47" t="s">
         <v>111</v>
-      </c>
-      <c r="J47">
-        <v>100</v>
-      </c>
-      <c r="K47" t="s">
-        <v>112</v>
-      </c>
-      <c r="L47">
-        <v>16</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
-        <v>22</v>
-      </c>
-      <c r="O47">
-        <v>10</v>
-      </c>
-      <c r="P47" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3373,7 +3376,7 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C48">
         <v>0.8</v>
@@ -3382,25 +3385,25 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H48">
         <v>19</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L48">
         <v>20</v>
@@ -3415,7 +3418,7 @@
         <v>10</v>
       </c>
       <c r="P48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3423,7 +3426,7 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C49">
         <v>0.8</v>
@@ -3432,25 +3435,25 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F49">
         <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H49">
         <v>19</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J49">
         <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L49">
         <v>20</v>
@@ -3465,7 +3468,7 @@
         <v>10</v>
       </c>
       <c r="P49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3473,7 +3476,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3482,19 +3485,19 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F50">
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H50">
         <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J50">
         <v>100</v>
@@ -3515,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="P50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3523,7 +3526,7 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3532,19 +3535,19 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F51">
         <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H51">
         <v>49</v>
       </c>
       <c r="I51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J51">
         <v>100</v>
@@ -3565,7 +3568,7 @@
         <v>10</v>
       </c>
       <c r="P51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3573,7 +3576,7 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C52">
         <v>0.2</v>
@@ -3582,28 +3585,28 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H52">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J52">
         <v>100</v>
       </c>
       <c r="K52" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -3615,7 +3618,7 @@
         <v>10</v>
       </c>
       <c r="P52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3623,7 +3626,7 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C53">
         <v>0.2</v>
@@ -3632,28 +3635,28 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H53">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I53" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J53">
         <v>100</v>
       </c>
       <c r="K53" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -3665,7 +3668,7 @@
         <v>10</v>
       </c>
       <c r="P53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3673,7 +3676,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C54">
         <v>0.4</v>
@@ -3682,19 +3685,19 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="H54">
         <v>11</v>
       </c>
       <c r="I54" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J54">
         <v>100</v>
@@ -3715,7 +3718,7 @@
         <v>10</v>
       </c>
       <c r="P54" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3723,7 +3726,7 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55">
         <v>0.4</v>
@@ -3732,19 +3735,19 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="H55">
         <v>11</v>
       </c>
       <c r="I55" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J55">
         <v>100</v>
@@ -3765,7 +3768,7 @@
         <v>10</v>
       </c>
       <c r="P55" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3773,7 +3776,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C56">
         <v>0.6</v>
@@ -3782,40 +3785,40 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56">
+        <v>21</v>
+      </c>
+      <c r="I56" t="s">
+        <v>128</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56" t="s">
         <v>129</v>
       </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="L56">
+        <v>22</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O56">
+        <v>10</v>
+      </c>
+      <c r="P56" t="s">
         <v>130</v>
-      </c>
-      <c r="H56">
-        <v>13</v>
-      </c>
-      <c r="I56" t="s">
-        <v>131</v>
-      </c>
-      <c r="J56">
-        <v>100</v>
-      </c>
-      <c r="K56" t="s">
-        <v>51</v>
-      </c>
-      <c r="L56">
-        <v>14</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56" t="s">
-        <v>22</v>
-      </c>
-      <c r="O56">
-        <v>10</v>
-      </c>
-      <c r="P56" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3823,7 +3826,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C57">
         <v>0.6</v>
@@ -3832,40 +3835,40 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>128</v>
+      </c>
+      <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57" t="s">
         <v>129</v>
       </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="L57">
+        <v>22</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O57">
+        <v>10</v>
+      </c>
+      <c r="P57" t="s">
         <v>130</v>
-      </c>
-      <c r="H57">
-        <v>13</v>
-      </c>
-      <c r="I57" t="s">
-        <v>131</v>
-      </c>
-      <c r="J57">
-        <v>100</v>
-      </c>
-      <c r="K57" t="s">
-        <v>51</v>
-      </c>
-      <c r="L57">
-        <v>14</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57" t="s">
-        <v>22</v>
-      </c>
-      <c r="O57">
-        <v>10</v>
-      </c>
-      <c r="P57" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3873,7 +3876,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C58">
         <v>0.8</v>
@@ -3882,40 +3885,40 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58">
+        <v>23</v>
+      </c>
+      <c r="I58" t="s">
         <v>133</v>
       </c>
-      <c r="F58">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58" t="s">
         <v>134</v>
       </c>
-      <c r="H58">
-        <v>49</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="L58">
+        <v>24</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58">
+        <v>10</v>
+      </c>
+      <c r="P58" t="s">
         <v>135</v>
-      </c>
-      <c r="J58">
-        <v>100</v>
-      </c>
-      <c r="K58" t="s">
-        <v>37</v>
-      </c>
-      <c r="L58">
-        <v>50</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58" t="s">
-        <v>22</v>
-      </c>
-      <c r="O58">
-        <v>10</v>
-      </c>
-      <c r="P58" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3923,7 +3926,7 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C59">
         <v>0.8</v>
@@ -3932,40 +3935,40 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59">
+        <v>23</v>
+      </c>
+      <c r="I59" t="s">
         <v>133</v>
       </c>
-      <c r="F59">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59" t="s">
         <v>134</v>
       </c>
-      <c r="H59">
-        <v>49</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="L59">
+        <v>24</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59">
+        <v>10</v>
+      </c>
+      <c r="P59" t="s">
         <v>135</v>
-      </c>
-      <c r="J59">
-        <v>100</v>
-      </c>
-      <c r="K59" t="s">
-        <v>37</v>
-      </c>
-      <c r="L59">
-        <v>50</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O59">
-        <v>10</v>
-      </c>
-      <c r="P59" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3973,7 +3976,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3982,19 +3985,19 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F60">
         <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H60">
         <v>49</v>
       </c>
       <c r="I60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J60">
         <v>100</v>
@@ -4015,7 +4018,7 @@
         <v>10</v>
       </c>
       <c r="P60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4023,7 +4026,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4032,19 +4035,19 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F61">
         <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H61">
         <v>49</v>
       </c>
       <c r="I61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J61">
         <v>100</v>
@@ -4065,7 +4068,7 @@
         <v>10</v>
       </c>
       <c r="P61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4073,7 +4076,7 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C62">
         <v>0.2</v>
@@ -4082,28 +4085,28 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" t="s">
+        <v>138</v>
+      </c>
+      <c r="H62">
+        <v>9</v>
+      </c>
+      <c r="I62" t="s">
         <v>139</v>
       </c>
-      <c r="H62">
-        <v>10</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="J62">
+        <v>100</v>
+      </c>
+      <c r="K62" t="s">
         <v>140</v>
       </c>
-      <c r="J62">
-        <v>100</v>
-      </c>
-      <c r="K62" t="s">
-        <v>87</v>
-      </c>
       <c r="L62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4123,7 +4126,7 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63">
         <v>0.2</v>
@@ -4132,28 +4135,28 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
+        <v>138</v>
+      </c>
+      <c r="H63">
+        <v>9</v>
+      </c>
+      <c r="I63" t="s">
         <v>139</v>
       </c>
-      <c r="H63">
-        <v>10</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="J63">
+        <v>100</v>
+      </c>
+      <c r="K63" t="s">
         <v>140</v>
       </c>
-      <c r="J63">
-        <v>100</v>
-      </c>
-      <c r="K63" t="s">
-        <v>87</v>
-      </c>
       <c r="L63">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -4173,7 +4176,7 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C64">
         <v>0.4</v>
@@ -4185,13 +4188,13 @@
         <v>142</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G64" t="s">
         <v>143</v>
       </c>
       <c r="H64">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I64" t="s">
         <v>144</v>
@@ -4200,10 +4203,10 @@
         <v>100</v>
       </c>
       <c r="K64" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="L64">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -4215,7 +4218,7 @@
         <v>10</v>
       </c>
       <c r="P64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4223,7 +4226,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65">
         <v>0.4</v>
@@ -4235,13 +4238,13 @@
         <v>142</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G65" t="s">
         <v>143</v>
       </c>
       <c r="H65">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I65" t="s">
         <v>144</v>
@@ -4250,10 +4253,10 @@
         <v>100</v>
       </c>
       <c r="K65" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="L65">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4265,7 +4268,7 @@
         <v>10</v>
       </c>
       <c r="P65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4273,7 +4276,7 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66">
         <v>0.6</v>
@@ -4282,28 +4285,28 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H66">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J66">
         <v>100</v>
       </c>
       <c r="K66" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="L66">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -4315,7 +4318,7 @@
         <v>10</v>
       </c>
       <c r="P66" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4323,7 +4326,7 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C67">
         <v>0.6</v>
@@ -4332,28 +4335,28 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H67">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J67">
         <v>100</v>
       </c>
       <c r="K67" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="L67">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -4365,7 +4368,7 @@
         <v>10</v>
       </c>
       <c r="P67" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4373,7 +4376,7 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68">
         <v>0.8</v>
@@ -4382,28 +4385,28 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F68">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H68">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I68" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J68">
         <v>100</v>
       </c>
       <c r="K68" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="L68">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -4415,7 +4418,7 @@
         <v>10</v>
       </c>
       <c r="P68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4423,7 +4426,7 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69">
         <v>0.8</v>
@@ -4432,28 +4435,28 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F69">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H69">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I69" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J69">
         <v>100</v>
       </c>
       <c r="K69" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="L69">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -4465,7 +4468,7 @@
         <v>10</v>
       </c>
       <c r="P69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4473,7 +4476,7 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4515,7 +4518,7 @@
         <v>10</v>
       </c>
       <c r="P70" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4523,7 +4526,7 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4565,7 +4568,7 @@
         <v>10</v>
       </c>
       <c r="P71" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4573,7 +4576,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C72">
         <v>0.2</v>
@@ -4582,28 +4585,28 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H72">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>100</v>
       </c>
       <c r="K72" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="L72">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -4615,7 +4618,7 @@
         <v>10</v>
       </c>
       <c r="P72" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4623,7 +4626,7 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C73">
         <v>0.2</v>
@@ -4632,28 +4635,28 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H73">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J73">
         <v>100</v>
       </c>
       <c r="K73" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="L73">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -4665,7 +4668,7 @@
         <v>10</v>
       </c>
       <c r="P73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4673,7 +4676,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C74">
         <v>0.4</v>
@@ -4682,28 +4685,28 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F74">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H74">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J74">
         <v>100</v>
       </c>
       <c r="K74" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L74">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -4715,7 +4718,7 @@
         <v>10</v>
       </c>
       <c r="P74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4723,7 +4726,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75">
         <v>0.4</v>
@@ -4732,28 +4735,28 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F75">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H75">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J75">
         <v>100</v>
       </c>
       <c r="K75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L75">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -4765,7 +4768,7 @@
         <v>10</v>
       </c>
       <c r="P75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4773,7 +4776,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C76">
         <v>0.6</v>
@@ -4782,28 +4785,28 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H76">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J76">
         <v>100</v>
       </c>
       <c r="K76" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="L76">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -4815,7 +4818,7 @@
         <v>10</v>
       </c>
       <c r="P76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4823,7 +4826,7 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C77">
         <v>0.6</v>
@@ -4832,28 +4835,28 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H77">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J77">
         <v>100</v>
       </c>
       <c r="K77" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="L77">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -4865,7 +4868,7 @@
         <v>10</v>
       </c>
       <c r="P77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4873,7 +4876,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C78">
         <v>0.8</v>
@@ -4882,19 +4885,19 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F78">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H78">
         <v>49</v>
       </c>
       <c r="I78" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J78">
         <v>100</v>
@@ -4915,7 +4918,7 @@
         <v>10</v>
       </c>
       <c r="P78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4923,7 +4926,7 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C79">
         <v>0.8</v>
@@ -4932,19 +4935,19 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F79">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H79">
         <v>49</v>
       </c>
       <c r="I79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J79">
         <v>100</v>
@@ -4965,7 +4968,7 @@
         <v>10</v>
       </c>
       <c r="P79" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4973,7 +4976,7 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4982,19 +4985,19 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F80">
         <v>25</v>
       </c>
       <c r="G80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H80">
         <v>49</v>
       </c>
       <c r="I80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J80">
         <v>100</v>
@@ -5015,7 +5018,7 @@
         <v>10</v>
       </c>
       <c r="P80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5023,7 +5026,7 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5032,19 +5035,19 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F81">
         <v>25</v>
       </c>
       <c r="G81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H81">
         <v>49</v>
       </c>
       <c r="I81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J81">
         <v>100</v>
@@ -5065,7 +5068,7 @@
         <v>10</v>
       </c>
       <c r="P81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5073,7 +5076,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C82">
         <v>0.2</v>
@@ -5082,28 +5085,28 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H82">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I82" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J82">
         <v>100</v>
       </c>
       <c r="K82" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L82">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -5115,7 +5118,7 @@
         <v>10</v>
       </c>
       <c r="P82" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5123,7 +5126,7 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C83">
         <v>0.2</v>
@@ -5132,28 +5135,28 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H83">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I83" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J83">
         <v>100</v>
       </c>
       <c r="K83" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L83">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -5165,7 +5168,7 @@
         <v>10</v>
       </c>
       <c r="P83" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5173,7 +5176,7 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C84">
         <v>0.4</v>
@@ -5182,19 +5185,19 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F84">
         <v>2</v>
       </c>
       <c r="G84" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H84">
         <v>11</v>
       </c>
       <c r="I84" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J84">
         <v>100</v>
@@ -5215,7 +5218,7 @@
         <v>10</v>
       </c>
       <c r="P84" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5223,7 +5226,7 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C85">
         <v>0.4</v>
@@ -5232,19 +5235,19 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F85">
         <v>2</v>
       </c>
       <c r="G85" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H85">
         <v>11</v>
       </c>
       <c r="I85" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J85">
         <v>100</v>
@@ -5265,7 +5268,7 @@
         <v>10</v>
       </c>
       <c r="P85" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5273,7 +5276,7 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C86">
         <v>0.6</v>
@@ -5282,29 +5285,29 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F86">
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H86">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>187</v>
+      </c>
+      <c r="J86">
+        <v>100</v>
+      </c>
+      <c r="K86" t="s">
+        <v>54</v>
+      </c>
+      <c r="L86">
         <v>14</v>
       </c>
-      <c r="I86" t="s">
-        <v>185</v>
-      </c>
-      <c r="J86">
-        <v>100</v>
-      </c>
-      <c r="K86" t="s">
-        <v>186</v>
-      </c>
-      <c r="L86">
-        <v>15</v>
-      </c>
       <c r="M86">
         <v>0</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>10</v>
       </c>
       <c r="P86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5323,7 +5326,7 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C87">
         <v>0.6</v>
@@ -5332,29 +5335,29 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F87">
         <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H87">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
+        <v>187</v>
+      </c>
+      <c r="J87">
+        <v>100</v>
+      </c>
+      <c r="K87" t="s">
+        <v>54</v>
+      </c>
+      <c r="L87">
         <v>14</v>
       </c>
-      <c r="I87" t="s">
-        <v>185</v>
-      </c>
-      <c r="J87">
-        <v>100</v>
-      </c>
-      <c r="K87" t="s">
-        <v>186</v>
-      </c>
-      <c r="L87">
-        <v>15</v>
-      </c>
       <c r="M87">
         <v>0</v>
       </c>
@@ -5365,7 +5368,7 @@
         <v>10</v>
       </c>
       <c r="P87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5373,7 +5376,7 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C88">
         <v>0.8</v>
@@ -5382,28 +5385,28 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F88">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H88">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J88">
         <v>100</v>
       </c>
       <c r="K88" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L88">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -5415,7 +5418,7 @@
         <v>10</v>
       </c>
       <c r="P88" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5423,7 +5426,7 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C89">
         <v>0.8</v>
@@ -5432,28 +5435,28 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F89">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H89">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J89">
         <v>100</v>
       </c>
       <c r="K89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L89">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -5465,7 +5468,7 @@
         <v>10</v>
       </c>
       <c r="P89" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5473,7 +5476,7 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5482,19 +5485,19 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F90">
         <v>24</v>
       </c>
       <c r="G90" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H90">
         <v>49</v>
       </c>
       <c r="I90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J90">
         <v>100</v>
@@ -5515,7 +5518,7 @@
         <v>10</v>
       </c>
       <c r="P90" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5523,7 +5526,7 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5532,19 +5535,19 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F91">
         <v>24</v>
       </c>
       <c r="G91" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H91">
         <v>49</v>
       </c>
       <c r="I91" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J91">
         <v>100</v>
@@ -5565,7 +5568,7 @@
         <v>10</v>
       </c>
       <c r="P91" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5573,7 +5576,7 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C92">
         <v>0.2</v>
@@ -5582,28 +5585,28 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G92" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H92">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I92" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J92">
         <v>100</v>
       </c>
       <c r="K92" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="L92">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -5615,7 +5618,7 @@
         <v>10</v>
       </c>
       <c r="P92" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5623,7 +5626,7 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C93">
         <v>0.2</v>
@@ -5632,28 +5635,28 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H93">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I93" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J93">
         <v>100</v>
       </c>
       <c r="K93" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="L93">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -5665,7 +5668,7 @@
         <v>10</v>
       </c>
       <c r="P93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5673,7 +5676,7 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C94">
         <v>0.4</v>
@@ -5682,28 +5685,28 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F94">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H94">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I94" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J94">
         <v>100</v>
       </c>
       <c r="K94" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="L94">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -5715,7 +5718,7 @@
         <v>10</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5723,7 +5726,7 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C95">
         <v>0.4</v>
@@ -5732,28 +5735,28 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F95">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G95" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H95">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I95" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J95">
         <v>100</v>
       </c>
       <c r="K95" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="L95">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -5765,7 +5768,7 @@
         <v>10</v>
       </c>
       <c r="P95" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5773,7 +5776,7 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C96">
         <v>0.6</v>
@@ -5782,28 +5785,28 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F96">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G96" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H96">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J96">
         <v>100</v>
       </c>
       <c r="K96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L96">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -5815,7 +5818,7 @@
         <v>10</v>
       </c>
       <c r="P96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5823,7 +5826,7 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C97">
         <v>0.6</v>
@@ -5832,28 +5835,28 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F97">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G97" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H97">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I97" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J97">
         <v>100</v>
       </c>
       <c r="K97" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L97">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -5865,7 +5868,7 @@
         <v>10</v>
       </c>
       <c r="P97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5873,7 +5876,7 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98">
         <v>0.8</v>
@@ -5882,10 +5885,10 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F98">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
         <v>40</v>
@@ -5894,7 +5897,7 @@
         <v>49</v>
       </c>
       <c r="I98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J98">
         <v>100</v>
@@ -5915,7 +5918,7 @@
         <v>10</v>
       </c>
       <c r="P98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5923,7 +5926,7 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C99">
         <v>0.8</v>
@@ -5932,10 +5935,10 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F99">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
         <v>40</v>
@@ -5944,7 +5947,7 @@
         <v>49</v>
       </c>
       <c r="I99" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J99">
         <v>100</v>
@@ -5965,7 +5968,7 @@
         <v>10</v>
       </c>
       <c r="P99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -5973,7 +5976,7 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6015,7 +6018,7 @@
         <v>10</v>
       </c>
       <c r="P100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6023,7 +6026,7 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6065,7 +6068,7 @@
         <v>10</v>
       </c>
       <c r="P101" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/experimental results/e5000_Taxi.xlsx
+++ b/experimental results/e5000_Taxi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="208">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -70,532 +70,508 @@
     <t>[0,0,2,3,4,5]</t>
   </si>
   <si>
-    <t>[6]</t>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '216', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11]</t>
+  </si>
+  <si>
+    <t>Omitted</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[6, 7, 8, 10, 13, 14, 16, 17, 18, 20, 22, 23, 25, 26, 27, 28]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '336', '436', '436', '336', '436', '336', '236', '336', '436', '336', '436', '436', '436', '336', '436', '336', '436', '436', '336', '436', '436', '436', '436', '336', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34]</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[6, 8, 12, 13, 14, 15, 16, 17, 19, 20, 22, 24, 26, 29, 30, 31, 32, 35]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '336', '236', '336', '236', '136', '116', '216', '316', '416', '416', '416', '416', '316', '416', '416', '316', '416', '316', '416', '316', '416', '316', '216', '316', '416', '416', '416', '316', '216', '316', '216', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[2, 9, 10, 12, 13, 14, 15, 16, 17, 19, 20, 21, 22, 24, 26, 28, 29, 30, 31, 32, 34, 35, 36, 37, 39, 40, 41, 42, 43, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '376', '276', '256', '236', '136', '116', '216', '316', '216', '316', '416', '416', '416', '416', '416', '316', '416', '416', '416', '416', '316', '416', '316', '416', '316', '416', '416', '416', '416', '416', '316', '416', '416', '416', '416', '316', '416', '416', '416', '416', '416', '316', '216', '116', '216', '316', '416']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,2,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 5, 12, 14, 16]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '376', '396', '376', '276', '256', '236', '136', '116', '136', '116', '136', '116', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 8, 10, 12, 14, 16, 18, 20, 22, 24, 28, 30, 32, 34, 36, 38, 40, 42, 44, 46, 48]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '376', '276', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116', '136', '116']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 6, 8, 10, 12, 14, 16, 18, 20, 22, 24, 26, 28, 30, 32, 34, 36, 38, 40, 42, 44, 46, 48]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,2,5]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 5, 7, 9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49]</t>
+  </si>
+  <si>
+    <t>[4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4]</t>
+  </si>
+  <si>
+    <t>['472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492']</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,0,5]</t>
+  </si>
+  <si>
+    <t>[4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3]</t>
+  </si>
+  <si>
+    <t>[4, 4, 4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '472', '472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6]</t>
+  </si>
+  <si>
+    <t>[4, 4, 4, 4, 4, 4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '472', '472', '472', '472', '472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
+  </si>
+  <si>
+    <t>['472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,0]</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[9, 11, 13]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116']</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[0,2,1,3,4,5]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 8, 12]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '376', '276', '256', '236', '256', '236', '136', '116', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[3, 5, 12]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '396', '376', '396', '376', '276', '256', '236', '136', '116', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 7, 12, 14, 18, 20, 22]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 1, 3, 1, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '496', '476', '496', '476', '376', '396', '376', '276', '256', '236', '256', '236', '256', '236', '136', '116', '136', '116', '136', '116', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25]</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,3,2,1,4,5]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 0, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '176', '276', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[4, 7, 9, 11]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 0, 3, 3, 0, 3, 0, 3, 0, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '176', '276', '256', '156', '256', '156', '256', '156', '256', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 11, 14, 16, 20, 21, 22]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 0, 3, 3, 0, 3, 0, 3, 1, 3, 3, 3, 3, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '376', '276', '176', '276', '256', '156', '256', '156', '256', '236', '136', '36', '36', '36', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 8, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 3, 0, 3, 3, 1, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '476', '476', '476', '376', '276', '176', '276', '256', '236', '136', '36', '36', '36', '36', '36', '36', '36', '36', '36', '36', '36', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>['[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[0,4,2,3,1,5]</t>
+  </si>
+  <si>
+    <t>[6, 7, 8]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 1, 1, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '236', '236', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>[6, 7]</t>
   </si>
   <si>
     <t>[4, 1, 1, 3, 3, 1, 1, 1, 3, 1, 5]</t>
   </si>
   <si>
-    <t>['472', '476', '376', '276', '256', '236', '336', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11]</t>
-  </si>
-  <si>
-    <t>Omitted</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[8, 10, 12]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '216', '116', '216', '116', '216', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15]</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 9, 10, 11, 13, 15, 16, 17, 20, 24, 25, 26, 27, 28]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '476', '476', '376', '276', '256', '236', '336', '436', '436', '336', '436', '336', '436', '436', '436', '336', '236', '336', '236', '136', '116', '216', '316', '416', '416', '416', '316', '216', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33]</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 7, 8, 9, 10, 11, 12, 14, 15, 17, 22, 23, 24, 25, 26, 29, 30, 31, 32, 37, 38, 39, 40, 41, 44, 45, 46, 47, 48]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '376', '476', '476', '376', '476', '376', '276', '256', '236', '336', '436', '436', '436', '436', '336', '236', '336', '436', '436', '436', '336', '236', '136', '116', '216', '316', '416', '416', '416', '316', '216', '316', '416', '416', '416', '416', '316']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[0,2,2,3,4,5]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[6, 8]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '256', '236', '256', '236', '136', '116', '16', '0']</t>
+    <t>['472', '476', '376', '276', '256', '236', '236', '236', '136', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[8, 9, 10]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '136', '116', '116', '116', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 6, 8, 14, 15, 16, 17, 18, 19, 20]</t>
+  </si>
+  <si>
+    <t>[4, 0, 4, 0, 4, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '372', '472', '372', '472', '476', '476', '376', '376', '276', '256', '236', '136', '116', '116', '116', '116', '116', '116', '116', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22]</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4]</t>
+  </si>
+  <si>
+    <t>['472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[0,5,2,3,4,1]</t>
+  </si>
+  <si>
+    <t>[2, 5, 11]</t>
+  </si>
+  <si>
+    <t>[4, 1, 4, 1, 1, 1, 3, 3, 1, 3, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '472', '476', '376', '376', '276', '256', '236', '136', '116', '116', '16', '0']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
   </si>
   <si>
-    <t>['[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 6, 8, 10, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '396', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43]</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 6, 8, 10, 12, 14, 16, 18, 20, 22, 24, 26, 28, 30, 32, 34, 36, 38, 40, 42, 44, 46, 48]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476', '496', '476']</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,2,5]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 5]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 5, 7, 9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 5, 7, 9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49]</t>
-  </si>
-  <si>
-    <t>[4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4, 3, 4]</t>
-  </si>
-  <si>
-    <t>['472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492', '472', '492']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,0,5]</t>
-  </si>
-  <si>
-    <t>[4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3]</t>
-  </si>
-  <si>
-    <t>[4, 4, 4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '472', '472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4]</t>
-  </si>
-  <si>
-    <t>[4, 4, 4, 4, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '472', '472', '472', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>[4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
-  </si>
-  <si>
-    <t>['472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472', '472']</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,0]</t>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[9, 11]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[9, 11, 13, 15, 17]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19]</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>[9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45, 47, 49]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116', '16', '116']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[0,2,1,3,4,5]</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 5, 10, 12, 14, 16]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '376', '396', '376', '276', '256', '236', '256', '236', '256', '236', '256', '236', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21]</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 6, 9, 11, 16, 20]</t>
-  </si>
-  <si>
-    <t>[4, 1, 3, 1, 3, 1, 3, 1, 1, 3, 1, 3, 1, 3, 3, 1, 3, 1, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '496', '476', '496', '476', '496', '476', '376', '396', '376', '396', '376', '276', '256', '236', '256', '236', '136', '116', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23]</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[0,3,2,1,4,5]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '216', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 6, 9, 10, 12, 13, 14]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 3, 3, 0, 3, 1, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '376', '276', '256', '156', '256', '236', '216', '216', '116', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16]</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[2, 5, 7, 11, 12, 14, 15]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 3, 0, 3, 0, 3, 3, 1, 1, 1, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '376', '276', '176', '276', '176', '276', '256', '236', '216', '216', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17]</t>
-  </si>
-  <si>
-    <t>['[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 32, 33, 34, 36, 38, 40, 42, 44, 46, 48]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0, 3, 0]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '376', '376', '376', '276', '176', '276', '176', '276', '176', '276', '176', '276', '176', '276', '176', '276', '176', '276']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>[0,4,2,3,1,5]</t>
-  </si>
-  <si>
-    <t>[4, 0, 4, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '372', '472', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[1, 4, 6]</t>
-  </si>
-  <si>
-    <t>[4, 0, 4, 1, 1, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '372', '472', '476', '476', '376', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,2,1,3,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>[1, 4, 6, 12, 13]</t>
-  </si>
-  <si>
-    <t>[4, 0, 4, 1, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '372', '472', '476', '476', '376', '376', '276', '256', '236', '136', '116', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 5, 7, 9, 11, 13, 15, 18, 19, 20, 21, 22, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>[4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '476', '476', '476', '476', '476', '476', '376', '276', '256', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '136', '116', '116', '116', '116', '116', '116']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4, 0, 4]</t>
-  </si>
-  <si>
-    <t>['472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372', '472', '372']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]']</t>
-  </si>
-  <si>
-    <t>[0,5,2,3,4,1]</t>
-  </si>
-  <si>
-    <t>[2, 10]</t>
-  </si>
-  <si>
-    <t>[4, 1, 4, 1, 1, 3, 3, 1, 3, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '472', '476', '376', '276', '256', '236', '136', '116', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]']</t>
-  </si>
-  <si>
-    <t>[9, 10]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 5, 5, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '16', '16', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]']</t>
-  </si>
-  <si>
-    <t>[8, 9, 11, 12]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 3, 3, 1, 3, 1, 1, 1, 5, 5, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '376', '276', '256', '236', '136', '116', '116', '116', '16', '16', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[1,0,2,3,4,5]', '[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 6, 8, 11, 17, 18, 19, 20, 21, 23, 24, 25, 26]</t>
-  </si>
-  <si>
-    <t>[4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1, 1, 1, 1, 5, 5, 5, 5, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '376', '376', '276', '256', '236', '136', '116', '116', '116', '116', '116', '116', '16', '16', '16', '16', '16', '0']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27]</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,0,2,3,4,5]']</t>
+    <t>['[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]', '[0,4,2,3,1,5]', '[0,2,2,3,4,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]']</t>
+  </si>
+  <si>
+    <t>[6, 9]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 1, 3, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '236', '136', '116', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 6, 9, 10, 11, 18]</t>
+  </si>
+  <si>
+    <t>[4, 1, 4, 1, 4, 1, 4, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 5, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '472', '476', '472', '476', '472', '476', '376', '376', '376', '376', '276', '256', '236', '136', '116', '16', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,2,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 6, 8, 10, 12, 14, 16, 18, 20, 23, 24, 25, 26, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 5, 5, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '376', '376', '376', '376', '376', '276', '256', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '236', '136', '116', '16', '16', '16', '16']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,2,1,3,4,5]']</t>
   </si>
   <si>
     <t>[4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4, 1, 4]</t>
@@ -604,61 +580,64 @@
     <t>['472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476', '472', '476']</t>
   </si>
   <si>
-    <t>['[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[1,0,2,3,4,5]', '[0,1,2,3,2,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]']</t>
+    <t>['[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]']</t>
   </si>
   <si>
     <t>[1,0,2,3,4,5]</t>
   </si>
   <si>
-    <t>[2, 3, 5, 6, 8]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '376', '476', '476', '376', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,4,0]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]']</t>
-  </si>
-  <si>
-    <t>[2, 9]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 3, 3, 1, 3, 1, 1, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '376', '276', '256', '236', '136', '116', '216', '116', '16', '0']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 10, 11, 12, 15]</t>
-  </si>
-  <si>
-    <t>[4, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 5]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '476', '376', '276', '256', '236', '336', '436', '436', '336', '236', '336', '236', '136', '116', '16', '0']</t>
+    <t>[6, 10]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 1, 1, 3, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '336', '236', '136', '116', '216', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,2,5]', '[0,1,2,3,4,0]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[6, 7, 9, 11, 16]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 1, 1, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '276', '256', '236', '336', '436', '336', '436', '336', '436', '336', '236', '136', '116', '216', '116', '16', '0']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,3,2,5]', '[0,4,2,3,1,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[1,0,2,3,4,5]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]']</t>
+  </si>
+  <si>
+    <t>[3, 4, 6, 7, 9, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 3, 1, 5]</t>
+  </si>
+  <si>
+    <t>['472', '476', '376', '476', '476', '376', '476', '476', '376', '476', '476', '476', '476', '376', '276', '256', '236', '136', '116', '16', '0']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20]</t>
   </si>
   <si>
-    <t>['[0,2,1,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,5,2,3,4,1]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 6, 7, 8, 9, 10, 11, 13, 15, 16, 17, 18, 19, 20, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 33, 34, 35, 37, 38, 39, 40, 41, 42, 43, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>['472', '476', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '376', '476', '376', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '476', '476']</t>
-  </si>
-  <si>
-    <t>['[0,4,2,3,1,5]', '[0,2,1,3,4,5]', '[0,1,2,3,2,5]', '[0,5,2,3,4,1]', '[0,3,2,1,4,5]', '[0,1,2,3,0,5]', '[1,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,2,2,3,4,5]', '[0,0,2,3,4,5]']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,5,2,3,4,1]', '[0,2,1,3,4,5]', '[0,4,2,3,1,5]', '[1,0,2,3,4,5]', '[0,3,2,1,4,5]', '[0,1,2,3,4,0]', '[0,1,2,3,2,5]']</t>
+    <t>['[0,5,2,3,4,1]', '[0,1,2,3,2,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,0,2,3,4,5]', '[1,0,2,3,4,5]', '[0,4,2,3,1,5]', '[0,3,2,1,4,5]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 15, 16, 17, 18, 19, 20, 22, 23, 24, 25, 26, 27, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>['472', '476', '476', '376', '476', '476', '476', '476', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '376', '476', '476', '476', '476', '476', '476', '376', '276', '256', '236', '336', '436', '436', '436', '436', '436', '436', '436', '436', '436', '436', '436', '436', '436', '336', '436', '436', '436']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3,4,5]', '[0,1,2,3,2,5]', '[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,0,5]', '[0,3,2,1,4,5]', '[0,4,2,3,1,5]', '[0,1,2,3,4,0]', '[0,2,1,3,4,5]', '[0,5,2,3,4,1]']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3,4,5]', '[0,2,2,3,4,5]', '[0,1,2,3,2,5]', '[0,2,1,3,4,5]', '[0,3,2,1,4,5]', '[0,5,2,3,4,1]', '[0,1,2,3,0,5]', '[0,0,2,3,4,5]', '[0,1,2,3,4,0]', '[0,4,2,3,1,5]']</t>
   </si>
 </sst>
 </file>
@@ -1188,13 +1167,13 @@
         <v>24</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -1206,7 +1185,7 @@
         <v>27</v>
       </c>
       <c r="L4">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1238,13 +1217,13 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -1256,7 +1235,7 @@
         <v>27</v>
       </c>
       <c r="L5">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1288,13 +1267,13 @@
         <v>29</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -1306,7 +1285,7 @@
         <v>32</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1338,13 +1317,13 @@
         <v>29</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
       </c>
       <c r="H7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>31</v>
@@ -1356,7 +1335,7 @@
         <v>32</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1388,7 +1367,7 @@
         <v>34</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
@@ -1438,7 +1417,7 @@
         <v>34</v>
       </c>
       <c r="F9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -1788,13 +1767,13 @@
         <v>51</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
         <v>53</v>
@@ -1806,7 +1785,7 @@
         <v>54</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1838,13 +1817,13 @@
         <v>51</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
         <v>52</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
         <v>53</v>
@@ -1856,7 +1835,7 @@
         <v>54</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1888,13 +1867,13 @@
         <v>56</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
         <v>57</v>
       </c>
       <c r="H18">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
         <v>58</v>
@@ -1903,22 +1882,22 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18">
+        <v>50</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18" t="s">
         <v>59</v>
-      </c>
-      <c r="L18">
-        <v>44</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18">
-        <v>10</v>
-      </c>
-      <c r="P18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1938,13 +1917,13 @@
         <v>56</v>
       </c>
       <c r="F19">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
         <v>57</v>
       </c>
       <c r="H19">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
         <v>58</v>
@@ -1953,22 +1932,22 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19" t="s">
         <v>59</v>
-      </c>
-      <c r="L19">
-        <v>44</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19">
-        <v>10</v>
-      </c>
-      <c r="P19" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1985,19 +1964,19 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20">
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20">
         <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20">
         <v>100</v>
@@ -2018,7 +1997,7 @@
         <v>10</v>
       </c>
       <c r="P20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2035,19 +2014,19 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21">
         <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21">
         <v>100</v>
@@ -2068,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="P21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2076,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22">
         <v>0.2</v>
@@ -2085,19 +2064,19 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>66</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>67</v>
       </c>
       <c r="H22">
         <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -2118,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="P22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2126,7 +2105,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23">
         <v>0.2</v>
@@ -2135,19 +2114,19 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>66</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>67</v>
       </c>
       <c r="H23">
         <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J23">
         <v>100</v>
@@ -2168,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="P23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2176,7 +2155,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24">
         <v>0.4</v>
@@ -2185,19 +2164,19 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
         <v>66</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>67</v>
       </c>
       <c r="H24">
         <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -2218,7 +2197,7 @@
         <v>10</v>
       </c>
       <c r="P24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2226,7 +2205,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25">
         <v>0.4</v>
@@ -2235,19 +2214,19 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>66</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>67</v>
       </c>
       <c r="H25">
         <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -2268,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="P25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2276,7 +2255,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26">
         <v>0.6</v>
@@ -2285,28 +2264,28 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2318,7 +2297,7 @@
         <v>10</v>
       </c>
       <c r="P26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2326,7 +2305,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>0.6</v>
@@ -2335,28 +2314,28 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2368,7 +2347,7 @@
         <v>10</v>
       </c>
       <c r="P27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2376,7 +2355,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <v>0.8</v>
@@ -2385,28 +2364,28 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F28">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H28">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2418,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="P28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2426,7 +2405,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29">
         <v>0.8</v>
@@ -2435,28 +2414,28 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F29">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H29">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="L29">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2468,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="P29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2476,7 +2455,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2485,19 +2464,19 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F30">
         <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H30">
         <v>49</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J30">
         <v>100</v>
@@ -2518,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="P30" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2526,7 +2505,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2535,19 +2514,19 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F31">
         <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H31">
         <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J31">
         <v>100</v>
@@ -2568,7 +2547,7 @@
         <v>10</v>
       </c>
       <c r="P31" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2576,7 +2555,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C32">
         <v>0.2</v>
@@ -2585,25 +2564,25 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H32">
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L32">
         <v>11</v>
@@ -2618,7 +2597,7 @@
         <v>10</v>
       </c>
       <c r="P32" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2626,7 +2605,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C33">
         <v>0.2</v>
@@ -2635,25 +2614,25 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H33">
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L33">
         <v>11</v>
@@ -2668,7 +2647,7 @@
         <v>10</v>
       </c>
       <c r="P33" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2676,7 +2655,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C34">
         <v>0.4</v>
@@ -2685,25 +2664,25 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H34">
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L34">
         <v>13</v>
@@ -2718,7 +2697,7 @@
         <v>10</v>
       </c>
       <c r="P34" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2726,7 +2705,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>0.4</v>
@@ -2735,25 +2714,25 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H35">
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L35">
         <v>13</v>
@@ -2768,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="P35" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2776,7 +2755,7 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>0.6</v>
@@ -2785,25 +2764,25 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H36">
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L36">
         <v>11</v>
@@ -2818,7 +2797,7 @@
         <v>10</v>
       </c>
       <c r="P36" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2826,7 +2805,7 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C37">
         <v>0.6</v>
@@ -2835,25 +2814,25 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H37">
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L37">
         <v>11</v>
@@ -2868,7 +2847,7 @@
         <v>10</v>
       </c>
       <c r="P37" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2876,7 +2855,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <v>0.8</v>
@@ -2885,28 +2864,28 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2918,7 +2897,7 @@
         <v>10</v>
       </c>
       <c r="P38" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2926,7 +2905,7 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0.8</v>
@@ -2935,28 +2914,28 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2968,7 +2947,7 @@
         <v>10</v>
       </c>
       <c r="P39" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2976,7 +2955,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2985,19 +2964,19 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F40">
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H40">
         <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J40">
         <v>100</v>
@@ -3018,7 +2997,7 @@
         <v>10</v>
       </c>
       <c r="P40" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3026,7 +3005,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3035,19 +3014,19 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F41">
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H41">
         <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J41">
         <v>100</v>
@@ -3068,7 +3047,7 @@
         <v>10</v>
       </c>
       <c r="P41" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3076,7 +3055,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C42">
         <v>0.2</v>
@@ -3085,19 +3064,19 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H42">
         <v>11</v>
       </c>
       <c r="I42" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J42">
         <v>100</v>
@@ -3118,7 +3097,7 @@
         <v>10</v>
       </c>
       <c r="P42" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3126,7 +3105,7 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C43">
         <v>0.2</v>
@@ -3135,19 +3114,19 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H43">
         <v>11</v>
       </c>
       <c r="I43" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J43">
         <v>100</v>
@@ -3168,7 +3147,7 @@
         <v>10</v>
       </c>
       <c r="P43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3176,7 +3155,7 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C44">
         <v>0.4</v>
@@ -3185,40 +3164,40 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
         <v>103</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44" t="s">
+        <v>90</v>
+      </c>
+      <c r="L44">
+        <v>16</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44">
+        <v>10</v>
+      </c>
+      <c r="P44" t="s">
         <v>104</v>
-      </c>
-      <c r="H44">
-        <v>11</v>
-      </c>
-      <c r="I44" t="s">
-        <v>105</v>
-      </c>
-      <c r="J44">
-        <v>100</v>
-      </c>
-      <c r="K44" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44">
-        <v>12</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
-        <v>22</v>
-      </c>
-      <c r="O44">
-        <v>10</v>
-      </c>
-      <c r="P44" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3226,7 +3205,7 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C45">
         <v>0.4</v>
@@ -3235,40 +3214,40 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
         <v>103</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45" t="s">
+        <v>90</v>
+      </c>
+      <c r="L45">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
+      <c r="P45" t="s">
         <v>104</v>
-      </c>
-      <c r="H45">
-        <v>11</v>
-      </c>
-      <c r="I45" t="s">
-        <v>105</v>
-      </c>
-      <c r="J45">
-        <v>100</v>
-      </c>
-      <c r="K45" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45">
-        <v>12</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O45">
-        <v>10</v>
-      </c>
-      <c r="P45" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3276,7 +3255,7 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C46">
         <v>0.6</v>
@@ -3285,28 +3264,28 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H46">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3318,7 +3297,7 @@
         <v>10</v>
       </c>
       <c r="P46" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3326,7 +3305,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C47">
         <v>0.6</v>
@@ -3335,28 +3314,28 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H47">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I47" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -3368,7 +3347,7 @@
         <v>10</v>
       </c>
       <c r="P47" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3376,7 +3355,7 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C48">
         <v>0.8</v>
@@ -3385,28 +3364,28 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H48">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I48" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3418,7 +3397,7 @@
         <v>10</v>
       </c>
       <c r="P48" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3426,7 +3405,7 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C49">
         <v>0.8</v>
@@ -3435,28 +3414,28 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H49">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I49" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="J49">
         <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3468,7 +3447,7 @@
         <v>10</v>
       </c>
       <c r="P49" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3476,7 +3455,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3485,19 +3464,19 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F50">
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H50">
         <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J50">
         <v>100</v>
@@ -3518,7 +3497,7 @@
         <v>10</v>
       </c>
       <c r="P50" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3526,7 +3505,7 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3535,19 +3514,19 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F51">
         <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H51">
         <v>49</v>
       </c>
       <c r="I51" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J51">
         <v>100</v>
@@ -3568,7 +3547,7 @@
         <v>10</v>
       </c>
       <c r="P51" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3576,7 +3555,7 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C52">
         <v>0.2</v>
@@ -3618,7 +3597,7 @@
         <v>10</v>
       </c>
       <c r="P52" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3626,7 +3605,7 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C53">
         <v>0.2</v>
@@ -3668,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="P53" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3676,7 +3655,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C54">
         <v>0.4</v>
@@ -3685,28 +3664,28 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="H54">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J54">
         <v>100</v>
       </c>
       <c r="K54" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="L54">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3718,7 +3697,7 @@
         <v>10</v>
       </c>
       <c r="P54" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3726,7 +3705,7 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C55">
         <v>0.4</v>
@@ -3735,28 +3714,28 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="H55">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J55">
         <v>100</v>
       </c>
       <c r="K55" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="L55">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3768,7 +3747,7 @@
         <v>10</v>
       </c>
       <c r="P55" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3776,7 +3755,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C56">
         <v>0.6</v>
@@ -3785,28 +3764,28 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H56">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J56">
         <v>100</v>
       </c>
       <c r="K56" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3818,7 +3797,7 @@
         <v>10</v>
       </c>
       <c r="P56" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3826,7 +3805,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C57">
         <v>0.6</v>
@@ -3835,28 +3814,28 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H57">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J57">
         <v>100</v>
       </c>
       <c r="K57" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -3868,7 +3847,7 @@
         <v>10</v>
       </c>
       <c r="P57" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3876,7 +3855,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C58">
         <v>0.8</v>
@@ -3885,28 +3864,28 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H58">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I58" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J58">
         <v>100</v>
       </c>
       <c r="K58" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -3918,7 +3897,7 @@
         <v>10</v>
       </c>
       <c r="P58" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3926,7 +3905,7 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C59">
         <v>0.8</v>
@@ -3935,28 +3914,28 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H59">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I59" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J59">
         <v>100</v>
       </c>
       <c r="K59" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -3968,7 +3947,7 @@
         <v>10</v>
       </c>
       <c r="P59" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3976,7 +3955,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3985,19 +3964,19 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F60">
         <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H60">
         <v>49</v>
       </c>
       <c r="I60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J60">
         <v>100</v>
@@ -4018,7 +3997,7 @@
         <v>10</v>
       </c>
       <c r="P60" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4026,7 +4005,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4035,19 +4014,19 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F61">
         <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H61">
         <v>49</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J61">
         <v>100</v>
@@ -4068,7 +4047,7 @@
         <v>10</v>
       </c>
       <c r="P61" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4076,7 +4055,7 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C62">
         <v>0.2</v>
@@ -4085,28 +4064,28 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H62">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I62" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J62">
         <v>100</v>
       </c>
       <c r="K62" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="L62">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4118,7 +4097,7 @@
         <v>10</v>
       </c>
       <c r="P62" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4126,7 +4105,7 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C63">
         <v>0.2</v>
@@ -4135,28 +4114,28 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H63">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I63" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J63">
         <v>100</v>
       </c>
       <c r="K63" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="L63">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -4168,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="P63" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4176,7 +4155,7 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C64">
         <v>0.4</v>
@@ -4185,28 +4164,28 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H64">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I64" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J64">
         <v>100</v>
       </c>
       <c r="K64" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -4218,7 +4197,7 @@
         <v>10</v>
       </c>
       <c r="P64" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4226,7 +4205,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C65">
         <v>0.4</v>
@@ -4235,28 +4214,28 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F65">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H65">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J65">
         <v>100</v>
       </c>
       <c r="K65" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L65">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4268,7 +4247,7 @@
         <v>10</v>
       </c>
       <c r="P65" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4276,7 +4255,7 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C66">
         <v>0.6</v>
@@ -4285,28 +4264,28 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H66">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I66" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="J66">
         <v>100</v>
       </c>
       <c r="K66" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -4318,7 +4297,7 @@
         <v>10</v>
       </c>
       <c r="P66" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4326,7 +4305,7 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C67">
         <v>0.6</v>
@@ -4335,28 +4314,28 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H67">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I67" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="J67">
         <v>100</v>
       </c>
       <c r="K67" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -4368,7 +4347,7 @@
         <v>10</v>
       </c>
       <c r="P67" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4376,7 +4355,7 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C68">
         <v>0.8</v>
@@ -4385,28 +4364,28 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F68">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H68">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I68" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="J68">
         <v>100</v>
       </c>
       <c r="K68" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="L68">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -4418,7 +4397,7 @@
         <v>10</v>
       </c>
       <c r="P68" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4426,7 +4405,7 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C69">
         <v>0.8</v>
@@ -4435,28 +4414,28 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F69">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H69">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I69" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="J69">
         <v>100</v>
       </c>
       <c r="K69" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="L69">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -4468,7 +4447,7 @@
         <v>10</v>
       </c>
       <c r="P69" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4476,7 +4455,7 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4518,7 +4497,7 @@
         <v>10</v>
       </c>
       <c r="P70" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4526,7 +4505,7 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4568,7 +4547,7 @@
         <v>10</v>
       </c>
       <c r="P71" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4576,7 +4555,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C72">
         <v>0.2</v>
@@ -4585,28 +4564,28 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H72">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I72" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="J72">
         <v>100</v>
       </c>
       <c r="K72" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="L72">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -4618,7 +4597,7 @@
         <v>10</v>
       </c>
       <c r="P72" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4626,7 +4605,7 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C73">
         <v>0.2</v>
@@ -4635,28 +4614,28 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H73">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I73" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="J73">
         <v>100</v>
       </c>
       <c r="K73" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="L73">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -4668,7 +4647,7 @@
         <v>10</v>
       </c>
       <c r="P73" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4676,7 +4655,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C74">
         <v>0.4</v>
@@ -4685,28 +4664,28 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H74">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I74" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J74">
         <v>100</v>
       </c>
       <c r="K74" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="L74">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -4718,7 +4697,7 @@
         <v>10</v>
       </c>
       <c r="P74" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4726,7 +4705,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C75">
         <v>0.4</v>
@@ -4735,28 +4714,28 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H75">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I75" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J75">
         <v>100</v>
       </c>
       <c r="K75" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="L75">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -4768,7 +4747,7 @@
         <v>10</v>
       </c>
       <c r="P75" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4776,7 +4755,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C76">
         <v>0.6</v>
@@ -4785,28 +4764,28 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H76">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I76" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J76">
         <v>100</v>
       </c>
       <c r="K76" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="L76">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -4818,7 +4797,7 @@
         <v>10</v>
       </c>
       <c r="P76" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4826,7 +4805,7 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C77">
         <v>0.6</v>
@@ -4835,28 +4814,28 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H77">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I77" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J77">
         <v>100</v>
       </c>
       <c r="K77" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="L77">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -4868,7 +4847,7 @@
         <v>10</v>
       </c>
       <c r="P77" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4876,7 +4855,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C78">
         <v>0.8</v>
@@ -4885,28 +4864,28 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F78">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H78">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I78" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J78">
         <v>100</v>
       </c>
       <c r="K78" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="L78">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -4918,7 +4897,7 @@
         <v>10</v>
       </c>
       <c r="P78" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4926,7 +4905,7 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C79">
         <v>0.8</v>
@@ -4935,28 +4914,28 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F79">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H79">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I79" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J79">
         <v>100</v>
       </c>
       <c r="K79" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="L79">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -4968,7 +4947,7 @@
         <v>10</v>
       </c>
       <c r="P79" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4976,7 +4955,7 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4985,19 +4964,19 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F80">
         <v>25</v>
       </c>
       <c r="G80" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H80">
         <v>49</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J80">
         <v>100</v>
@@ -5018,7 +4997,7 @@
         <v>10</v>
       </c>
       <c r="P80" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5026,7 +5005,7 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5035,19 +5014,19 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F81">
         <v>25</v>
       </c>
       <c r="G81" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H81">
         <v>49</v>
       </c>
       <c r="I81" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J81">
         <v>100</v>
@@ -5068,7 +5047,7 @@
         <v>10</v>
       </c>
       <c r="P81" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5076,7 +5055,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C82">
         <v>0.2</v>
@@ -5085,28 +5064,28 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H82">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I82" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J82">
         <v>100</v>
       </c>
       <c r="K82" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="L82">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -5118,7 +5097,7 @@
         <v>10</v>
       </c>
       <c r="P82" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5126,7 +5105,7 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C83">
         <v>0.2</v>
@@ -5135,28 +5114,28 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H83">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I83" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J83">
         <v>100</v>
       </c>
       <c r="K83" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="L83">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -5168,7 +5147,7 @@
         <v>10</v>
       </c>
       <c r="P83" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5176,7 +5155,7 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C84">
         <v>0.4</v>
@@ -5185,19 +5164,19 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F84">
         <v>2</v>
       </c>
       <c r="G84" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H84">
         <v>11</v>
       </c>
       <c r="I84" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J84">
         <v>100</v>
@@ -5218,7 +5197,7 @@
         <v>10</v>
       </c>
       <c r="P84" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5226,7 +5205,7 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C85">
         <v>0.4</v>
@@ -5235,19 +5214,19 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F85">
         <v>2</v>
       </c>
       <c r="G85" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H85">
         <v>11</v>
       </c>
       <c r="I85" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J85">
         <v>100</v>
@@ -5268,7 +5247,7 @@
         <v>10</v>
       </c>
       <c r="P85" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5276,7 +5255,7 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C86">
         <v>0.6</v>
@@ -5285,19 +5264,19 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H86">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I86" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J86">
         <v>100</v>
@@ -5306,7 +5285,7 @@
         <v>54</v>
       </c>
       <c r="L86">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -5318,7 +5297,7 @@
         <v>10</v>
       </c>
       <c r="P86" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5326,7 +5305,7 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C87">
         <v>0.6</v>
@@ -5335,19 +5314,19 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H87">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I87" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J87">
         <v>100</v>
@@ -5356,7 +5335,7 @@
         <v>54</v>
       </c>
       <c r="L87">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -5368,7 +5347,7 @@
         <v>10</v>
       </c>
       <c r="P87" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5376,7 +5355,7 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C88">
         <v>0.8</v>
@@ -5385,28 +5364,28 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F88">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H88">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I88" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J88">
         <v>100</v>
       </c>
       <c r="K88" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="L88">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -5418,7 +5397,7 @@
         <v>10</v>
       </c>
       <c r="P88" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5426,7 +5405,7 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C89">
         <v>0.8</v>
@@ -5435,28 +5414,28 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F89">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H89">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I89" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J89">
         <v>100</v>
       </c>
       <c r="K89" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="L89">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -5468,7 +5447,7 @@
         <v>10</v>
       </c>
       <c r="P89" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5476,7 +5455,7 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5485,19 +5464,19 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F90">
         <v>24</v>
       </c>
       <c r="G90" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H90">
         <v>49</v>
       </c>
       <c r="I90" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J90">
         <v>100</v>
@@ -5518,7 +5497,7 @@
         <v>10</v>
       </c>
       <c r="P90" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5526,7 +5505,7 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5535,19 +5514,19 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F91">
         <v>24</v>
       </c>
       <c r="G91" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H91">
         <v>49</v>
       </c>
       <c r="I91" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J91">
         <v>100</v>
@@ -5568,7 +5547,7 @@
         <v>10</v>
       </c>
       <c r="P91" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5576,7 +5555,7 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C92">
         <v>0.2</v>
@@ -5585,28 +5564,28 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H92">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I92" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J92">
         <v>100</v>
       </c>
       <c r="K92" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="L92">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -5618,7 +5597,7 @@
         <v>10</v>
       </c>
       <c r="P92" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5626,7 +5605,7 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C93">
         <v>0.2</v>
@@ -5635,28 +5614,28 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F93">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H93">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I93" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J93">
         <v>100</v>
       </c>
       <c r="K93" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="L93">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -5668,7 +5647,7 @@
         <v>10</v>
       </c>
       <c r="P93" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5676,7 +5655,7 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C94">
         <v>0.4</v>
@@ -5685,28 +5664,28 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G94" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H94">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I94" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="J94">
         <v>100</v>
       </c>
       <c r="K94" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="L94">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -5718,7 +5697,7 @@
         <v>10</v>
       </c>
       <c r="P94" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5726,7 +5705,7 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C95">
         <v>0.4</v>
@@ -5735,28 +5714,28 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G95" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H95">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I95" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="J95">
         <v>100</v>
       </c>
       <c r="K95" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="L95">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -5768,7 +5747,7 @@
         <v>10</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5776,7 +5755,7 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C96">
         <v>0.6</v>
@@ -5785,25 +5764,25 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F96">
         <v>8</v>
       </c>
       <c r="G96" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H96">
         <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J96">
         <v>100</v>
       </c>
       <c r="K96" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L96">
         <v>21</v>
@@ -5818,7 +5797,7 @@
         <v>10</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5826,7 +5805,7 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C97">
         <v>0.6</v>
@@ -5835,25 +5814,25 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F97">
         <v>8</v>
       </c>
       <c r="G97" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H97">
         <v>20</v>
       </c>
       <c r="I97" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J97">
         <v>100</v>
       </c>
       <c r="K97" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L97">
         <v>21</v>
@@ -5868,7 +5847,7 @@
         <v>10</v>
       </c>
       <c r="P97" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5876,7 +5855,7 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C98">
         <v>0.8</v>
@@ -5885,19 +5864,19 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F98">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="H98">
         <v>49</v>
       </c>
       <c r="I98" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J98">
         <v>100</v>
@@ -5918,7 +5897,7 @@
         <v>10</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5926,7 +5905,7 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C99">
         <v>0.8</v>
@@ -5935,19 +5914,19 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F99">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="H99">
         <v>49</v>
       </c>
       <c r="I99" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J99">
         <v>100</v>
@@ -5968,7 +5947,7 @@
         <v>10</v>
       </c>
       <c r="P99" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -5976,7 +5955,7 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6018,7 +5997,7 @@
         <v>10</v>
       </c>
       <c r="P100" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6026,7 +6005,7 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6068,7 +6047,7 @@
         <v>10</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
